--- a/code/thu/5.16/output.xlsx
+++ b/code/thu/5.16/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A131"/>
+  <dimension ref="A1:A132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,14 +443,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Add new topic-1.txt</t>
+          <t>Add a type of product into cart-1.txt</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Successful Topic Creation
+          <t xml:space="preserve">- Successful Product Addition to Cart
 </t>
         </is>
       </c>
@@ -458,7 +458,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Topic Creation with Missing Name
+          <t xml:space="preserve">- Product Out of Stock
 </t>
         </is>
       </c>
@@ -466,7 +466,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Topic Creation with Missing Description
+          <t xml:space="preserve">- User Not Logged In
 </t>
         </is>
       </c>
@@ -474,7 +474,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Topic Creation with Duplicate Name
+          <t xml:space="preserve">- Product Detail Page Load Failure
 </t>
         </is>
       </c>
@@ -482,7 +482,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Administrator selects "Cancel" while adding the name of the topic.
+          <t xml:space="preserve">- Shopping Cart Update Delay
 </t>
         </is>
       </c>
@@ -490,7 +490,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Administrator selects "Cancel" after adding the name but before adding the description of the topic.
+          <t xml:space="preserve">- Product Has Multiple Options Scenario
 </t>
         </is>
       </c>
@@ -498,24 +498,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>- Administrator selects "Cancel" after adding both the name and the description of the topic but before selecting "Save".</t>
+          <t xml:space="preserve">- Product with Multiple Options Not Selected Before Adding to Cart
+</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- Product with Multiple Options Selected Before Adding to Cart
+</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AddLesson-1.txt</t>
+          <t xml:space="preserve">- User Adjusts Quantity Before Adding to Cart
+</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Successful Lesson Creation
+          <t xml:space="preserve">- Product Has Multiple Options and User Adjusts Quantity Before Adding to Cart
 </t>
         </is>
       </c>
@@ -523,31 +530,24 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Lesson Creation with Missing Name
-</t>
+          <t>- Product Option Out of Stock Scenario</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- Lesson Creation with Missing Description
-</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Lesson Creation with Duplicate Name
-</t>
+          <t>Buy product-1.txt</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Navigate to Add New Lesson Page via Dropdown Menu Option
+          <t xml:space="preserve">Successful Purchase with Default Settings
 </t>
         </is>
       </c>
@@ -555,7 +555,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Administrator Cancels Adding New Lesson Before Entering Name and Description
+          <t xml:space="preserve">Purchase with Changed Delivery Location
 </t>
         </is>
       </c>
@@ -563,7 +563,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Administrator Cancels Adding New Lesson After Entering Name but Before Saving
+          <t xml:space="preserve">Purchase with Modified Quantity
 </t>
         </is>
       </c>
@@ -571,7 +571,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Administrator Cancels Adding New Lesson After Entering Description but Before Saving
+          <t xml:space="preserve">Purchase with Different Payment Method
 </t>
         </is>
       </c>
@@ -579,24 +579,31 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>- Administrator Cancels Adding New Lesson After Entering Both Name and Description but Before Saving</t>
+          <t xml:space="preserve">Purchase with Applied Platform Promotion
+</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Purchase with Applied Product Promotion
+</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AddQuestion-2.txt</t>
+          <t xml:space="preserve">Single Store Selection Scenario
+</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Successful Creation of a Selection Test Question
+          <t xml:space="preserve">User Changes Delivery Location to a Saved Address
 </t>
         </is>
       </c>
@@ -604,7 +611,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Creation of a Selection Test Question with Invalid Sentence (Exceeds Character Limit or Contains Special Characters)
+          <t xml:space="preserve">User decides to change the delivery location to a new one during checkout
 </t>
         </is>
       </c>
@@ -612,7 +619,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Creation of a Selection Test Question with Duplicate Incorrect Options
+          <t xml:space="preserve">User enters a name in an incorrect format when adding a new delivery location
 </t>
         </is>
       </c>
@@ -620,7 +627,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Creation of a Selection Test Question with Incorrect Option Matching the Correct Answer
+          <t xml:space="preserve">User enters a phone number in an incorrect format when adding a new delivery location
 </t>
         </is>
       </c>
@@ -628,7 +635,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Cancellation of Selection Test Question Creation
+          <t xml:space="preserve">User attempts to add an address not available on the platform's map when adding a new delivery location
 </t>
         </is>
       </c>
@@ -636,7 +643,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Admin Accesses Lesson Management from Homepage
+          <t xml:space="preserve">User applies a shop promotion before completing the order
 </t>
         </is>
       </c>
@@ -644,7 +651,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Admin skips the "sentence" field while creating a new question for the selection test
+          <t xml:space="preserve">User applies a product promotion before completing the order
 </t>
         </is>
       </c>
@@ -652,7 +659,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Admin skips the 'correct answer' field while creating a selection test question
+          <t xml:space="preserve">User applies a platform's promotion voucher before completing the order
 </t>
         </is>
       </c>
@@ -660,7 +667,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Admin skips compulsory field 'other option 1' during question creation
+          <t xml:space="preserve">User changes shipping option before placing an order
 </t>
         </is>
       </c>
@@ -668,7 +675,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Admin skips compulsory field 'other option 2' while creating a selection test question
+          <t xml:space="preserve">Add new location with name field containing numbers
 </t>
         </is>
       </c>
@@ -676,7 +683,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Admin skips 'other option 3' field while creating a selection test question
+          <t xml:space="preserve">Add new location with name field containing special characters
 </t>
         </is>
       </c>
@@ -684,7 +691,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Admin Decides to Cancel but Then Chooses to Stay and Continue Editing
+          <t xml:space="preserve">Add new location with name field containing only one letter
 </t>
         </is>
       </c>
@@ -692,7 +699,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Admin Leaves Without Saving by Browser Back Button
+          <t xml:space="preserve">Add new location with phone number field not following the (+84) xxx xxx xxx format
 </t>
         </is>
       </c>
@@ -700,7 +707,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Admin Decides to Cancel Question Creation After Filling Out Some Fields
+          <t xml:space="preserve">Add new location with phone number field containing letters
 </t>
         </is>
       </c>
@@ -708,31 +715,24 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Admin Accidentally Presses 'Cancel' Instead of 'Save'
-</t>
+          <t>Add new location with exact location's address not available on the platform's map</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- Admin Intentionally Cancels Question Creation Before Filling Any Field
-</t>
-        </is>
-      </c>
+      <c r="A38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Sentence field skipped
-</t>
+          <t>Edit personal shopping cart-3.txt</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Sentence field above 250 characters
+          <t xml:space="preserve">- Cart Display with Multiple Products
 </t>
         </is>
       </c>
@@ -740,7 +740,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Sentence field contains special characters
+          <t xml:space="preserve">- Cart Display with a Single Product
 </t>
         </is>
       </c>
@@ -748,24 +748,31 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>- Sentence field does not contain '...'</t>
+          <t xml:space="preserve">- Empty Cart Display
+</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- Cart Display with Products from the Same Shop
+</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>EditTest-1-f.txt</t>
+          <t xml:space="preserve">- Cart Display with Expired Promotions
+</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. Successful Edit and Save of Vocabulary Exercises
+          <t xml:space="preserve">- Cart Display with Updated Product Information
 </t>
         </is>
       </c>
@@ -773,7 +780,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">2. Edit Vocabulary Exercises with Invalid Inputs
+          <t xml:space="preserve">- Cart Display with Out-of-Stock Products
 </t>
         </is>
       </c>
@@ -781,7 +788,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">3. Cancel Edit of Vocabulary Exercises
+          <t xml:space="preserve">- Cart Display with Products Having Limited Quantity Options
 </t>
         </is>
       </c>
@@ -789,7 +796,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">4. Edit Vocabulary Exercises with Network Interruption
+          <t xml:space="preserve">- User Removes a Product from Their Shopping Cart
 </t>
         </is>
       </c>
@@ -797,7 +804,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">5. Edit and Save Vocabulary Exercises with No Changes Made
+          <t xml:space="preserve">- Removing a Product by Decreasing Quantity to Zero
 </t>
         </is>
       </c>
@@ -805,7 +812,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">6. Administrator Exits Without Saving Changes
+          <t xml:space="preserve">- User Decides Not to Remove a Product After Decreasing Quantity to Zero
 </t>
         </is>
       </c>
@@ -813,7 +820,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">
+          <t xml:space="preserve">- Product Quantity Increase Due to Stock Availability
 </t>
         </is>
       </c>
@@ -821,7 +828,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Note: không có nút cancel được miêu tả trong  usecase.
+          <t xml:space="preserve">- Product Quantity Increase with Promotion Adjustment
 </t>
         </is>
       </c>
@@ -829,24 +836,31 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Thiếu trường hợp exit và saves</t>
+          <t xml:space="preserve">- Product Quantity Increase Affects Shipping Options
+</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr"/>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- Product Quantity Increase with Price Update
+</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Flashcard-4.txt</t>
+          <t xml:space="preserve">- Product Quantity Increase Leads to Option Re-selection
+</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Successful Lesson and Topic Selection with Flashcard Review
+          <t xml:space="preserve">- Decreasing Product Quantity to Desired Number
 </t>
         </is>
       </c>
@@ -854,7 +868,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Navigation to Previous Flashcard
+          <t xml:space="preserve">- Decreasing Product Quantity to Zero Leading to Product Removal
 </t>
         </is>
       </c>
@@ -862,7 +876,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Completion of Flashcard Set and Return to Lesson Page
+          <t xml:space="preserve">- Decreasing Product Quantity for a Product with Promotions
 </t>
         </is>
       </c>
@@ -870,7 +884,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Learner presses 'back' button during flashcard study and chooses to stay
+          <t xml:space="preserve">- Decreasing Product Quantity for a Product with Multiple Options Selected
 </t>
         </is>
       </c>
@@ -878,7 +892,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Learner Completes a Topic and Chooses to Continue Studying
+          <t xml:space="preserve">- Change Product Option Due to Preference Change
 </t>
         </is>
       </c>
@@ -886,7 +900,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Learner Continues Incomplete Topic from Home Page
+          <t xml:space="preserve">- Change Product Option Due to Availability
 </t>
         </is>
       </c>
@@ -894,7 +908,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Attempt to Navigate to Previous Flashcard on First Flashcard
+          <t xml:space="preserve">- Change Product Option for Better Price or Promotion
 </t>
         </is>
       </c>
@@ -902,7 +916,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>- Learner Exits Flashcard Study via Back Button</t>
+          <t>- Change Product Option After Comparing with Similar Products</t>
         </is>
       </c>
     </row>
@@ -912,14 +926,14 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Handbook-2.txt</t>
+          <t>Rating a product-1.txt</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Successful Display of Vocabulary List
+          <t xml:space="preserve">- Successful Rating Submission with Default 5-Star Ratings
 </t>
         </is>
       </c>
@@ -927,7 +941,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Scroll Through Vocabulary List
+          <t xml:space="preserve">- Successful Rating Submission with Modified Star Ratings
 </t>
         </is>
       </c>
@@ -935,7 +949,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Searching for a Specific Vocabulary Word
+          <t xml:space="preserve">- Successful Rating Submission with Comment Added
 </t>
         </is>
       </c>
@@ -943,7 +957,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Learner Searches for a Meaningless Vocabulary
+          <t xml:space="preserve">- Successful Rating Submission with Picture Added
 </t>
         </is>
       </c>
@@ -951,7 +965,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Learner Excludes a Vocabulary Word from Review Test
+          <t xml:space="preserve">- Successful Rating Submission with Video Added
 </t>
         </is>
       </c>
@@ -959,24 +973,31 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>- Learner Selects Vocabulary for Review</t>
+          <t xml:space="preserve">- Successful Rating Submission with All Optional Fields Utilized (Comment, Picture, and Video)
+</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr"/>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- Rating Submission with Mandatory Fields Only (No Comment, Picture, or Video)
+</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Learning days history-1.txt</t>
+          <t xml:space="preserve">- Attempt to Submit Rating Without Completing Mandatory Fields
+</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. Successful navigation to Day History with continuous learning streak.
+          <t xml:space="preserve">- Rating Submission with Invalid File Format for Picture or Video
 </t>
         </is>
       </c>
@@ -984,24 +1005,31 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2. Successful navigation to Day History with learning streak reset to one after a break.</t>
+          <t xml:space="preserve">- Rating Submission with File Size Exceeding Limit for Picture or Video
+</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr"/>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- User Adjusts Quality Rating to 1 Star
+</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ListenToPronunciation-1.txt</t>
+          <t xml:space="preserve">- User Adjusts Quality Rating to 2 Stars
+</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. Correct Answer Scenario
+          <t xml:space="preserve">- User Adjusts Quality Rating to 3 Stars
 </t>
         </is>
       </c>
@@ -1009,24 +1037,31 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2. Incorrect Answer Scenario</t>
+          <t xml:space="preserve">- User Adjusts Quality Rating to 4 Stars
+</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr"/>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- User adjusts seller rating to 1 star
+</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Login-1.txt</t>
+          <t xml:space="preserve">- User adjusts seller rating to 2 stars
+</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Successful Login
+          <t xml:space="preserve">- User adjusts seller rating to 3 stars
 </t>
         </is>
       </c>
@@ -1034,7 +1069,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Incorrect Password
+          <t xml:space="preserve">- User adjusts seller rating to 4 stars
 </t>
         </is>
       </c>
@@ -1042,7 +1077,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Unregistered Username
+          <t xml:space="preserve">- User adjusts shipping rating to 1 star
 </t>
         </is>
       </c>
@@ -1050,7 +1085,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Account Locked After Multiple Failed Attempts
+          <t xml:space="preserve">- User adjusts shipping rating to 2 stars
 </t>
         </is>
       </c>
@@ -1058,7 +1093,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Login with Registered Email Scenario
+          <t xml:space="preserve">- User adjusts shipping rating to 3 stars
 </t>
         </is>
       </c>
@@ -1066,7 +1101,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">- User enters a wrong password for a registered username
+          <t xml:space="preserve">- User adjusts shipping rating to 4 stars
 </t>
         </is>
       </c>
@@ -1074,7 +1109,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">- User attempts to login with a blank username field
+          <t xml:space="preserve">- User Leaves a Comment Before Clicking Done
 </t>
         </is>
       </c>
@@ -1082,24 +1117,31 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>- User attempts to login with a blank password field</t>
+          <t xml:space="preserve">- User adds a picture successfully
+</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr"/>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- User attempts to add a non-image file
+</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>note.txt</t>
+          <t xml:space="preserve">- User Adds Maximum Allowed Pictures
+</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">login có những test scenario yc số kí tự 8-16 nhưng không được mô tả trong   u secase (nhiều lần)
+          <t xml:space="preserve">- User Attempts to Add More Than Maximum Allowed Pictures
 </t>
         </is>
       </c>
@@ -1107,41 +1149,40 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">edit test: có nút cancel dù không được miêu tả.
+          <t xml:space="preserve">- User Adds Less Than Maximum Allowed Pictures
 </t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr"/>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- User Adds a Video Successfully
+</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Registry-2.txt</t>
+          <t>- User Attempts to Add a Non-Video File</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- Successful Registration
-</t>
-        </is>
-      </c>
+      <c r="A96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Registration with Username Below Minimum Length
-</t>
+          <t>Search feature-3.txt</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Registration with Username Above Maximum Length
+          <t xml:space="preserve">- Successful Product Search
 </t>
         </is>
       </c>
@@ -1149,7 +1190,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Registration with Password Below Minimum Length
+          <t xml:space="preserve">- No Results Found
 </t>
         </is>
       </c>
@@ -1157,7 +1198,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Registration with Password Above Maximum Length
+          <t xml:space="preserve">- Partial Match Results Found
 </t>
         </is>
       </c>
@@ -1165,7 +1206,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Registration with Password Missing a Normal Character
+          <t xml:space="preserve">- Search by Brand Name Instead of Product Name
 </t>
         </is>
       </c>
@@ -1173,7 +1214,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Registration with Password Missing a Capitalized Character
+          <t xml:space="preserve">- Misinterpretation of Product Name as Brand Name
 </t>
         </is>
       </c>
@@ -1181,7 +1222,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Registration with Password Missing a Number
+          <t xml:space="preserve">- Searching for a Shop Name Instead of a Product Name
 </t>
         </is>
       </c>
@@ -1189,7 +1230,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Registration with Password Missing a Special Character
+          <t xml:space="preserve">- User searches for a product using a misspelled keyword
 </t>
         </is>
       </c>
@@ -1197,7 +1238,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Registration with Password Same as Username
+          <t xml:space="preserve">- User searches for a product that is not available in any shop or does not exist
 </t>
         </is>
       </c>
@@ -1205,7 +1246,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Learner Registers with Email Instead of Username
+          <t xml:space="preserve">- Search for Unavailable Product
 </t>
         </is>
       </c>
@@ -1213,7 +1254,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Username Already Exists Scenario
+          <t xml:space="preserve">- Search Using Non-Product Keywords
 </t>
         </is>
       </c>
@@ -1221,7 +1262,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Invalid Email Format Scenario
+          <t xml:space="preserve">- Search with Typographical Errors
 </t>
         </is>
       </c>
@@ -1229,7 +1270,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>- Inexistent Email Scenario</t>
+          <t>- Search with Discontinued or Out-of-Stock Products</t>
         </is>
       </c>
     </row>
@@ -1239,14 +1280,14 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Review Test-1.txt</t>
+          <t>Track order's status-1.txt</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. Review with Questions Method
+          <t xml:space="preserve">1. View All Orders Scenario
 </t>
         </is>
       </c>
@@ -1254,7 +1295,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">2. Review with Sound Method
+          <t xml:space="preserve">2. View Orders Waiting for Payment Scenario
 </t>
         </is>
       </c>
@@ -1262,7 +1303,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve">3. Review with Image Method
+          <t xml:space="preserve">3. View Delivering Orders Scenario
 </t>
         </is>
       </c>
@@ -1270,7 +1311,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve">4. Review with Meanings Method
+          <t xml:space="preserve">4. View Orders Waiting to Deliver Scenario
 </t>
         </is>
       </c>
@@ -1278,7 +1319,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t xml:space="preserve">5. Learner selects the wrong answer for a question-based review.
+          <t xml:space="preserve">5. View Finished Orders Scenario
 </t>
         </is>
       </c>
@@ -1286,7 +1327,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve">6. Learner selects the wrong answer for a sound-based review.
+          <t xml:space="preserve">6. View Cancelled Orders Scenario
 </t>
         </is>
       </c>
@@ -1294,7 +1335,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">7. Learner selects the wrong answer for an image-based review.
+          <t xml:space="preserve">7. View Returned Orders Scenario
 </t>
         </is>
       </c>
@@ -1302,7 +1343,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve">8. Learner selects the wrong answer for a meaning-based review.
+          <t xml:space="preserve">8. Search for a Specific Order Scenario
 </t>
         </is>
       </c>
@@ -1310,7 +1351,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve">9. Review Completion Scenario
+          <t xml:space="preserve">9. Searching for an order by shop's name
 </t>
         </is>
       </c>
@@ -1318,7 +1359,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve">10. Learners press "Exit" and choose to stay before selecting an answer
+          <t xml:space="preserve">10. Searching for an order by order's ID
 </t>
         </is>
       </c>
@@ -1326,7 +1367,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve">11. Learners press "Exit" and choose to stay after selecting an answer but before pressing "Continue"
+          <t xml:space="preserve">11. Searching for an order by product's ID
 </t>
         </is>
       </c>
@@ -1334,32 +1375,32 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve">12. Learner Exits Before Selecting an Answer
-</t>
+          <t>12. Search Orders with Empty Input</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>13. Learner Exits After Selecting an Answer but Before Confirmation</t>
-        </is>
-      </c>
+      <c r="A124" t="inlineStr"/>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr"/>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>View detail information of a product-2.txt</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>WordSortingTest-1.txt</t>
+          <t xml:space="preserve">1. Successful Navigation to Product Detail Page
+</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. Correct Answer Scenario
+          <t xml:space="preserve">2. Product Detail Page with Out of Stock Status
 </t>
         </is>
       </c>
@@ -1367,7 +1408,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t xml:space="preserve">2. Incorrect Answer Scenario
+          <t xml:space="preserve">3. Product Detail Page with Limited Stock Warning
 </t>
         </is>
       </c>
@@ -1375,7 +1416,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve">3. Partially Correct Answer Scenario
+          <t xml:space="preserve">4. Product Detail Page with No User Ratings Available
 </t>
         </is>
       </c>
@@ -1383,12 +1424,20 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>4. No Answer Submitted Scenario</t>
+          <t xml:space="preserve">5. Product Detail Page with Multiple Shipping Options
+</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr"/>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>6. Product Has Multiple Options Scenario</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/code/thu/5.16/output.xlsx
+++ b/code/thu/5.16/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A132"/>
+  <dimension ref="A1:A74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Successful Product Addition to Cart
+          <t xml:space="preserve">Successful Product Addition to Cart
 </t>
         </is>
       </c>
@@ -458,7 +458,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Product Out of Stock
+          <t xml:space="preserve">Product Out of Stock Scenario
 </t>
         </is>
       </c>
@@ -466,7 +466,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">- User Not Logged In
+          <t xml:space="preserve">Product has many options
 </t>
         </is>
       </c>
@@ -474,7 +474,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Product Detail Page Load Failure
+          <t xml:space="preserve">Product with Multiple Options Not Selected Before Adding to Cart
 </t>
         </is>
       </c>
@@ -482,7 +482,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Shopping Cart Update Delay
+          <t xml:space="preserve">User Adjusts Quantity Before Adding to Cart
 </t>
         </is>
       </c>
@@ -490,7 +490,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Product Has Multiple Options Scenario
+          <t xml:space="preserve">Scenario: User adjusts quantity of a product with multiple options before adding to cart
 </t>
         </is>
       </c>
@@ -498,7 +498,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Product with Multiple Options Not Selected Before Adding to Cart
+          <t xml:space="preserve">Product Becomes Out of Stock Before User Clicks Add to Cart
 </t>
         </is>
       </c>
@@ -506,48 +506,48 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Product with Multiple Options Selected Before Adding to Cart
-</t>
+          <t>Product Option Out of Stock Scenario</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- User Adjusts Quantity Before Adding to Cart
-</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Product Has Multiple Options and User Adjusts Quantity Before Adding to Cart
-</t>
+          <t>Buy product-1.txt</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>- Product Option Out of Stock Scenario</t>
+          <t xml:space="preserve">1. Successful Purchase with Default Settings
+</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2. Buying Products from a Single Store Scenario
+</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Buy product-1.txt</t>
+          <t xml:space="preserve">3. Change of Delivery Location Before Purchase
+</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Successful Purchase with Default Settings
+          <t xml:space="preserve">4. Change of Payment Method Before Purchase
 </t>
         </is>
       </c>
@@ -555,7 +555,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Purchase with Changed Delivery Location
+          <t xml:space="preserve">5. Applying Platform Promotion Before Purchase
 </t>
         </is>
       </c>
@@ -563,7 +563,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Purchase with Modified Quantity
+          <t xml:space="preserve">6. User Changes Delivery Location to a New Location with Correct Details
 </t>
         </is>
       </c>
@@ -571,7 +571,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Purchase with Different Payment Method
+          <t xml:space="preserve">7. Add new delivery location with location name containing numbers
 </t>
         </is>
       </c>
@@ -579,7 +579,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Purchase with Applied Platform Promotion
+          <t xml:space="preserve">8. Add new delivery location with location name less than 2 letters
 </t>
         </is>
       </c>
@@ -587,7 +587,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Purchase with Applied Product Promotion
+          <t xml:space="preserve">9. Add new delivery location with phone number not in format (+84) xxx xxx xxx
 </t>
         </is>
       </c>
@@ -595,7 +595,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Single Store Selection Scenario
+          <t xml:space="preserve">10. Add new delivery location with phone number containing letters
 </t>
         </is>
       </c>
@@ -603,7 +603,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">User Changes Delivery Location to a Saved Address
+          <t xml:space="preserve">11. Add new delivery location with exact address not found on the platform's map
 </t>
         </is>
       </c>
@@ -611,7 +611,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">User decides to change the delivery location to a new one during checkout
+          <t xml:space="preserve">12. User Applies Shop or Product's Promotion Before Placing Order
 </t>
         </is>
       </c>
@@ -619,31 +619,24 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">User enters a name in an incorrect format when adding a new delivery location
-</t>
+          <t>13. User changes shipping option</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">User enters a phone number in an incorrect format when adding a new delivery location
-</t>
-        </is>
-      </c>
+      <c r="A26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">User attempts to add an address not available on the platform's map when adding a new delivery location
-</t>
+          <t>Edit personal shopping cart-1.txt</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">User applies a shop promotion before completing the order
+          <t xml:space="preserve">1. Successful Navigation to Cart Page with Product Details Displayed
 </t>
         </is>
       </c>
@@ -651,7 +644,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">User applies a product promotion before completing the order
+          <t xml:space="preserve">2. User removes a product from their shopping cart by erasing it
 </t>
         </is>
       </c>
@@ -659,7 +652,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">User applies a platform's promotion voucher before completing the order
+          <t xml:space="preserve">3. Scenario: User decides not to remove a product after initiating the removal process.
 </t>
         </is>
       </c>
@@ -667,7 +660,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">User changes shipping option before placing an order
+          <t xml:space="preserve">4. Removing a Product by Decreasing Quantity to Zero
 </t>
         </is>
       </c>
@@ -675,7 +668,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Add new location with name field containing numbers
+          <t xml:space="preserve">5. User Decides Not to Remove a Product After Decreasing Quantity to Zero
 </t>
         </is>
       </c>
@@ -683,7 +676,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Add new location with name field containing special characters
+          <t xml:space="preserve">6. Product Quantity Increase
 </t>
         </is>
       </c>
@@ -691,7 +684,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Add new location with name field containing only one letter
+          <t xml:space="preserve">7. Decrease Product Quantity to Desired Number
 </t>
         </is>
       </c>
@@ -699,40 +692,40 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Add new location with phone number field not following the (+84) xxx xxx xxx format
-</t>
+          <t>8. Product Option Change Scenario</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Add new location with phone number field containing letters
-</t>
-        </is>
-      </c>
+      <c r="A36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Add new location with exact location's address not available on the platform's map</t>
+          <t>Rating a product-1.txt</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. Successful Rating Submission
+</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Edit personal shopping cart-3.txt</t>
+          <t xml:space="preserve">2. Rating Submission with Added Comment
+</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Cart Display with Multiple Products
+          <t xml:space="preserve">3. Rating Submission with Added Picture
 </t>
         </is>
       </c>
@@ -740,7 +733,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Cart Display with a Single Product
+          <t xml:space="preserve">4. Rating Submission with Added Video
 </t>
         </is>
       </c>
@@ -748,7 +741,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Empty Cart Display
+          <t xml:space="preserve">5. Rating Submission with Modified Star Ratings
 </t>
         </is>
       </c>
@@ -756,7 +749,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Cart Display with Products from the Same Shop
+          <t xml:space="preserve">6. User Adjusts Quality Rating Before Submitting
 </t>
         </is>
       </c>
@@ -764,7 +757,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Cart Display with Expired Promotions
+          <t xml:space="preserve">7. User Adjusts Seller Rating Before Submitting
 </t>
         </is>
       </c>
@@ -772,7 +765,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Cart Display with Updated Product Information
+          <t xml:space="preserve">8. Adjust Shipping Rating Before Submitting
 </t>
         </is>
       </c>
@@ -780,31 +773,24 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Cart Display with Out-of-Stock Products
-</t>
+          <t>9. User Adds Multiple Pictures Up to Maximum Limit</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- Cart Display with Products Having Limited Quantity Options
-</t>
-        </is>
-      </c>
+      <c r="A47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">- User Removes a Product from Their Shopping Cart
-</t>
+          <t>Search feature-2.txt</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Removing a Product by Decreasing Quantity to Zero
+          <t xml:space="preserve">1. Successful Product Search
 </t>
         </is>
       </c>
@@ -812,7 +798,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">- User Decides Not to Remove a Product After Decreasing Quantity to Zero
+          <t xml:space="preserve">2. No Results Found
 </t>
         </is>
       </c>
@@ -820,7 +806,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Product Quantity Increase Due to Stock Availability
+          <t xml:space="preserve">3. Partial Match Results
 </t>
         </is>
       </c>
@@ -828,7 +814,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Product Quantity Increase with Promotion Adjustment
+          <t xml:space="preserve">4. Searching by Brand Name Scenario
 </t>
         </is>
       </c>
@@ -836,7 +822,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Product Quantity Increase Affects Shipping Options
+          <t xml:space="preserve">5. Searching by Shop Name Instead of Product Name
 </t>
         </is>
       </c>
@@ -844,31 +830,24 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Product Quantity Increase with Price Update
-</t>
+          <t>6. SearchWithUnavailableKeywordNotMatchingAnyShopBrandOrProduct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- Product Quantity Increase Leads to Option Re-selection
-</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Decreasing Product Quantity to Desired Number
-</t>
+          <t>Track order's status-1.txt</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Decreasing Product Quantity to Zero Leading to Product Removal
+          <t xml:space="preserve">User Views All Orders
 </t>
         </is>
       </c>
@@ -876,7 +855,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Decreasing Product Quantity for a Product with Promotions
+          <t xml:space="preserve">User Filters Orders by Waiting for Payment
 </t>
         </is>
       </c>
@@ -884,7 +863,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Decreasing Product Quantity for a Product with Multiple Options Selected
+          <t xml:space="preserve">User Filters Orders by Delivering
 </t>
         </is>
       </c>
@@ -892,7 +871,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Change Product Option Due to Preference Change
+          <t xml:space="preserve">User Filters Orders by Waiting to Deliver
 </t>
         </is>
       </c>
@@ -900,7 +879,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Change Product Option Due to Availability
+          <t xml:space="preserve">User Filters Orders by Finished
 </t>
         </is>
       </c>
@@ -908,7 +887,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Change Product Option for Better Price or Promotion
+          <t xml:space="preserve">User Filters Orders by Cancelled
 </t>
         </is>
       </c>
@@ -916,24 +895,31 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>- Change Product Option After Comparing with Similar Products</t>
+          <t xml:space="preserve">User Filters Orders by Returned
+</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr"/>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">User Searches for a Specific Order
+</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Rating a product-1.txt</t>
+          <t xml:space="preserve">Scenario: User searches for an order by shop's name.
+</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Successful Rating Submission with Default 5-Star Ratings
+          <t xml:space="preserve">Scenario: User searches for an order by order's ID.
 </t>
         </is>
       </c>
@@ -941,7 +927,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Successful Rating Submission with Modified Star Ratings
+          <t xml:space="preserve">Scenario: User searches for an order by product's ID.
 </t>
         </is>
       </c>
@@ -949,31 +935,24 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Successful Rating Submission with Comment Added
-</t>
+          <t>Search Orders with Empty Input</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- Successful Rating Submission with Picture Added
-</t>
-        </is>
-      </c>
+      <c r="A69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Successful Rating Submission with Video Added
-</t>
+          <t>View detail information of a product-1.txt</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Successful Rating Submission with All Optional Fields Utilized (Comment, Picture, and Video)
+          <t xml:space="preserve">1. Successful Navigation to Product Detail Page
 </t>
         </is>
       </c>
@@ -981,7 +960,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Rating Submission with Mandatory Fields Only (No Comment, Picture, or Video)
+          <t xml:space="preserve">2. Product Has Multiple Options Scenario
 </t>
         </is>
       </c>
@@ -989,455 +968,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Attempt to Submit Rating Without Completing Mandatory Fields
-</t>
+          <t>3. Product Out of Stock Scenario</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- Rating Submission with Invalid File Format for Picture or Video
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- Rating Submission with File Size Exceeding Limit for Picture or Video
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- User Adjusts Quality Rating to 1 Star
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- User Adjusts Quality Rating to 2 Stars
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- User Adjusts Quality Rating to 3 Stars
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- User Adjusts Quality Rating to 4 Stars
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- User adjusts seller rating to 1 star
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- User adjusts seller rating to 2 stars
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- User adjusts seller rating to 3 stars
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- User adjusts seller rating to 4 stars
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- User adjusts shipping rating to 1 star
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- User adjusts shipping rating to 2 stars
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- User adjusts shipping rating to 3 stars
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- User adjusts shipping rating to 4 stars
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- User Leaves a Comment Before Clicking Done
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- User adds a picture successfully
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- User attempts to add a non-image file
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- User Adds Maximum Allowed Pictures
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- User Attempts to Add More Than Maximum Allowed Pictures
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- User Adds Less Than Maximum Allowed Pictures
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- User Adds a Video Successfully
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>- User Attempts to Add a Non-Video File</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Search feature-3.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- Successful Product Search
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- No Results Found
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- Partial Match Results Found
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- Search by Brand Name Instead of Product Name
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- Misinterpretation of Product Name as Brand Name
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- Searching for a Shop Name Instead of a Product Name
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- User searches for a product using a misspelled keyword
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- User searches for a product that is not available in any shop or does not exist
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- Search for Unavailable Product
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- Search Using Non-Product Keywords
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- Search with Typographical Errors
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>- Search with Discontinued or Out-of-Stock Products</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Track order's status-1.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. View All Orders Scenario
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2. View Orders Waiting for Payment Scenario
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3. View Delivering Orders Scenario
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4. View Orders Waiting to Deliver Scenario
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5. View Finished Orders Scenario
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6. View Cancelled Orders Scenario
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7. View Returned Orders Scenario
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8. Search for a Specific Order Scenario
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9. Searching for an order by shop's name
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10. Searching for an order by order's ID
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11. Searching for an order by product's ID
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>12. Search Orders with Empty Input</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>View detail information of a product-2.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. Successful Navigation to Product Detail Page
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2. Product Detail Page with Out of Stock Status
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3. Product Detail Page with Limited Stock Warning
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4. Product Detail Page with No User Ratings Available
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5. Product Detail Page with Multiple Shipping Options
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>6. Product Has Multiple Options Scenario</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr"/>
+      <c r="A74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/code/thu/5.16/output.xlsx
+++ b/code/thu/5.16/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,7 +827,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Display the list of books</t>
+          <t>Add a new book</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -840,45 +840,1545 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Add a new book with empty Title</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Add a new book with empty Title field</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Verify that the system prevents adding a new book with an empty Title field and displays an incorrect data message.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list page.
+- Step 2: Click the 'Create new' button to open the book creation form.
+- Step 3: Leave the Title field empty.
+- Step 4: Fill in the Author, Genre, Description, and Publication date fields with valid data.
+- Step 5: Press the 'Submit' button.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>The system should display an incorrect data message for the Title field, indicating that it cannot be empty and the book record should not be added to the database.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Add a new book with empty Author</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Add a new book with empty Author field</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Verify that the system prevents adding a new book with an empty Author field and displays the correct error message.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list page.
+- Step 2: Click the 'Create new' button to open the book creation form.
+- Step 3: Enter valid data in the Title, Genre, Description, and Publication date fields.
+- Step 4: Leave the Author field empty.
+- Step 5: Press the 'Submit' button.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>The system should display an error message indicating that the Author field cannot be empty and the book record should not be added to the database.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Add a new book with empty Description</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Add a new book with empty Description</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Verify that the system allows adding a new book with all required fields filled except for the Description field</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list page.
+- Step 2: Click the 'Create new' button to open the book creation form.
+- Step 3: Enter valid data into the Title, Author, Genre, and Publication date fields.
+- Step 4: Leave the Description field empty.
+- Step 5: Press the 'Submit' button.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>The new book record is successfully added to the database without a description, and the list of books with the newly added record is displayed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Add a new book with empty Publication date</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Add a new book with empty Publication date</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Verify that the system allows adding a new book with the Publication date field left empty</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list page.
+- Step 2: Click the 'Create new' button to open the book creation form.
+- Step 3: Enter valid data into the Title, Author, Genre, and Description fields.
+- Step 4: Leave the Publication date field empty.
+- Step 5: Press the 'Submit' button.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>The new book record is successfully added to the database without a Publication date, and the list of books with the newly added record is displayed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Successful Book Creation</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Successful Book Creation with Valid Data</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Verify that a new book record can be successfully added to the database with valid data</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list page.
+- Step 2: Click the 'Create new' button to open the book creation form.
+- Step 3: Enter valid data into all fields: Title, Author, Genre, Description, and Publication Date.
+- Step 4: Press the 'Submit' button.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>A new book record is successfully added to the database, and the user is redirected to the list of books with the newly added record visible.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Book Creation with Incorrect Data</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Book Creation with Incorrect Title Data</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Verify that the system displays an incorrect data message when a book is created with an incorrect title format.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list page.
+- Step 2: Click the 'Create new' button to open the book creation form.
+- Step 3: Enter an incorrect format for the Title (e.g., using special characters or numbers if not allowed).
+- Step 4: Fill in the rest of the fields (Author, Genre, Description, Publication date) with valid data.
+- Step 5: Press the 'Submit' button.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>An incorrect data message related to the Title field is displayed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Book Creation with Incorrect Author Data</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Verify that the system displays an incorrect data message when a book is created with an incorrect author name format.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list page.
+- Step 2: Click the 'Create new' button to open the book creation form.
+- Step 3: Enter valid data for the Title, Genre, Description, and Publication date fields.
+- Step 4: Enter an incorrect format for the Author (e.g., using special characters or numbers if not allowed).
+- Step 5: Press the 'Submit' button.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>An incorrect data message related to the Author field is displayed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Book Creation with Incorrect Genre Data</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Verify that the system displays an incorrect data message when a book is created with an incorrect genre format.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list page.
+- Step 2: Click the 'Create new' button to open the book creation form.
+- Step 3: Enter valid data for the Title, Author, Description, and Publication date fields.
+- Step 4: Enter an incorrect format for the Genre (e.g., using numbers if not allowed).
+- Step 5: Press the 'Submit' button.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>An incorrect data message related to the Genre field is displayed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Book Creation with Incorrect Publication Date</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Verify that the system displays an incorrect data message when a book is created with an incorrect publication date format.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list page.
+- Step 2: Click the 'Create new' button to open the book creation form.
+- Step 3: Enter valid data for the Title, Author, Genre, and Description fields.
+- Step 4: Enter an incorrect format for the Publication date (e.g., using letters or incorrect date format).
+- Step 5: Press the 'Submit' button.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>An incorrect data message related to the Publication date field is displayed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Cancel Operation After Partial Data Entry</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Cancel New Book Creation After Partial Data Entry by Cancel Button</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Verify that the book creation process can be canceled after partially entering data by using the 'Cancel' button, and ensure that no data is saved to the database.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list page.
+- Step 2: Click the 'Create new' button to start the process of adding a new book.
+- Step 3: On the book creation form, enter partial data for the new book (e.g., Title and Author).
+- Step 4: Press the 'Cancel' button before submitting the form.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>The application should not save the entered data and should redirect the user to the list of book records, displaying the list without the partially entered book.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Cancel New Book Creation After Partial Data Entry by Navigation</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Verify that navigating away from the book creation page after partially entering data cancels the creation process without saving data to the database.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list page.
+- Step 2: Click the 'Create new' button to start the process of adding a new book.
+- Step 3: On the book creation form, enter partial data for the new book (e.g., Genre and Description).
+- Step 4: Without submitting the form, select a different menu item (e.g., 'Authors').</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>The application should not save the partially entered data and should display the selected page (e.g., Authors page) without any impact from the canceled book creation process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Cancel Operation Before Data Submission</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Cancel New Book Creation Before Submission</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Verify that the book creation process can be canceled before data submission and ensures data is not saved</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list page.
+- Step 2: Click the 'Create new' button to start the process of adding a new book.
+- Step 3: On the book creation form, start entering data for the new book (Title, Author, Genre, Description, Publication Date).
+- Step 4: Before pressing the 'Submit' button, click the 'Cancel' button.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>The book creation process is canceled, no data is saved to the database, and the user is redirected to the list of book records.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Cancel New Book Creation and Navigate to Another Page</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Verify that navigating away from the book creation page before submission cancels the operation and no data is saved</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list page.
+- Step 2: Click the 'Create new' button to open the book creation form.
+- Step 3: Begin entering book details (Title, Author, Genre, Description, Publication Date) into the form.
+- Step 4: Without submitting the form, select a different menu item (e.g., 'Genres', 'Authors', 'Home', or 'API').</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Navigation away from the book creation page is successful, the book creation process is canceled, no data is saved to the database, and the user is taken to the selected page.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Navigation to "Books" Before Submission</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Verify Navigation to 'Books' Before Submission via Cancel Button</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Ensure that the user can navigate back to the 'Books' list without submitting the form by clicking the 'Cancel' button.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list page.
+- Step 2: Click the 'Create new' button to open the book creation form.
+- Step 3: Start entering data into the form fields for a new book.
+- Step 4: Click the 'Cancel' button before pressing the 'Submit' button.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>The application should navigate the user back to the list of books without saving any entered data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Verify Navigation to 'Books' Before Submission via Navigation Menu</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Ensure that the user can navigate back to the 'Books' list without submitting the form by selecting 'Books' from the navigation menu.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list page.
+- Step 2: Click the 'Create new' button to open the book creation form.
+- Step 3: Start entering data into the form fields for a new book.
+- Step 4: Without pressing the 'Submit' button, select the 'Books' menu item from the navigation menu.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>The application should navigate the user back to the list of books without saving any entered data, displaying the updated list of books.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Navigation to "Genres" Before Submission</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Navigate to 'Genres' before submitting new book data</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Verify that navigating to 'Genres' from the book creation form before submitting discards the entered data and displays the 'Genres' page.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list page.
+- Step 2: Click on the 'Create new' button to open the book creation form.
+- Step 3: Start entering data into the book creation form fields (Title, Author, Genre, Description, Publication Date).
+- Step 4: Before pressing the 'Submit' button, select the menu item 'Genres'.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>The book creation form is closed, the entered data is not saved to the database, and the 'Genres' page is displayed with updated data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Navigation to "Authors" Before Submission</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Navigate to 'Authors' before submitting new book data</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Verify that navigating to 'Authors' before submitting new book data does not save the entered data</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list page.
+- Step 2: Click the 'Create new' button to open the book creation form.
+- Step 3: Start entering data into the book form fields (Title, Author, Genre, Description, Publication Date).
+- Step 4: Before pressing the 'Submit' button, click on the 'Authors' menu item to navigate away from the book creation page.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>The application should navigate to the 'Authors' page without saving the entered book data, and no new book record should be added to the database.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Navigation to "Home" Before Submission</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Navigation to 'Home' Before Submission</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Verify that navigating to 'Home' before submitting a new book record cancels the operation and does not save the data</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list page.
+- Step 2: Click the 'Create new' button to start adding a new book.
+- Step 3: Start entering data into the form fields for the new book (Title, Author, Genre, Description, Publication Date).
+- Step 4: Before pressing the 'Submit' button, select the 'Home' menu item to navigate away from the creation page.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>The operation is canceled, the data is not saved in the database, and the user is redirected to the 'Home' page.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Navigation to "API" Before Submission</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Navigate to 'API' before submitting new book data</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Verify that navigating to 'API' before submitting new book data does not save the entered data</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list page.
+- Step 2: Click on the 'Create new' button to open the book creation form.
+- Step 3: Start entering book data into the form fields (Title, Author, Genre, Description, Publication Date).
+- Step 4: Before pressing the 'Submit' button, select the 'API' menu item to navigate away from the book creation page.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>The application should navigate to the 'API' page without saving the entered book data, and no new book record should be added to the database.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Add a new genre</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CreateGenre_WithoutName</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Attempt to create a new genre without entering a name</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Verify that the system prevents the creation of a new genre without a name and displays an appropriate error message.</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the genre list page.
+- Step 2: Click the 'Create new' button to open the genre creation form.
+- Step 3: Leave the 'Name' field empty.
+- Step 4: Enter a valid description in the 'Description' field.
+- Step 5: Press the 'Submit' button.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>An error message is displayed indicating that the name field is required and the genre record is not added to the database.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CreateGenre_WithoutDescription</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Create Genre Without Entering Description</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Verify that the genre can be created without entering a description and is successfully added to the database.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the genre list page.
+- Step 2: Click the 'Create new' button to open the genre creation form.
+- Step 3: Enter a unique name for the genre in the 'Name' field.
+- Step 4: Leave the 'Description' field empty.
+- Step 5: Press the 'Submit' button.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>A new genre record without a description is successfully added to the database, and the user is redirected to the list of genres with the newly added record visible.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Create Genre Without Description and Encounter an Error</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Verify that the application displays an error message when an error occurs during the creation of a new genre without a description.</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the genre list page.
+- Step 2: Click the 'Create new' button to open the genre creation form.
+- Step 3: Enter a unique name for the genre in the 'Name' field.
+- Step 4: Leave the 'Description' field empty.
+- Step 5: Simulate an error condition (e.g., disconnect from the database) and press the 'Submit' button.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>An error message is displayed, indicating that the new genre record could not be added due to an error.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Successful Genre Creation</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Successful Genre Creation with Valid Data</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Verify that a new genre can be successfully created and added to the database with valid data</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the genre list page.
+- Step 2: Click the 'Create new' button.
+- Step 3: Enter valid data into the 'Name' and 'Description' fields of the genre form.
+- Step 4: Press the 'Submit' button.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>A success message is displayed, and the new genre is added to the list of genres.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Genre Creation with Incorrect Data</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Genre Creation with Empty Name Field</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Verify that the system displays an incorrect data message when attempting to create a new genre with the Name field left empty</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the genre list page.
+- Step 2: Click the 'Create new' button to open the genre creation form.
+- Step 3: Leave the 'Name' field empty.
+- Step 4: Enter valid data into the 'Description' field.
+- Step 5: Press the 'Submit' button.</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>An incorrect data message is displayed indicating that the Name field cannot be empty.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Genre Creation with Excessively Long Name</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Verify that the system displays an incorrect data message when attempting to create a new genre with a Name that exceeds the character limit</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the genre list page.
+- Step 2: Click the 'Create new' button to open the genre creation form.
+- Step 3: Enter a Name that exceeds the character limit (e.g., 256 characters long).
+- Step 4: Enter valid data into the 'Description' field.
+- Step 5: Press the 'Submit' button.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>An incorrect data message is displayed indicating that the Name field exceeds the character limit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Genre Creation with Invalid Characters in Name</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Verify that the system displays an incorrect data message when attempting to create a new genre with invalid characters in the Name field</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the genre list page.
+- Step 2: Click the 'Create new' button to open the genre creation form.
+- Step 3: Enter a Name containing invalid characters (e.g., special symbols).
+- Step 4: Enter valid data into the 'Description' field.
+- Step 5: Press the 'Submit' button.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>An incorrect data message is displayed indicating that the Name field contains invalid characters.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>User Cancels While Entering Data</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Cancel New Genre Creation Before Submission</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Verify that the genre creation process can be canceled before submission and no data is saved</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the genre list page.
+- Step 2: Click the 'Create new' button to start the process of adding a new genre.
+- Step 3: Begin entering data into the 'Name' and 'Description' fields of the genre form.
+- Step 4: Press the 'Cancel' button before submitting the form.</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>The application should not save the entered data and should display the list of genre records.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Navigate Away From Genre Creation Form Before Submission</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Verify that navigating away from the genre creation form before submission does not save the data</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the genre list page.
+- Step 2: Click the 'Create new' button to open the genre creation form.
+- Step 3: Start entering data into the 'Name' and 'Description' fields.
+- Step 4: Without submitting the form, select another menu item such as 'Books', 'Genres', 'Authors', 'Home', or 'API'.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>The application should not save the entered data in the genre creation form and should display the selected page.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>User Navigates Away by Selecting "Books"</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Verify Navigation Away by Selecting 'Books' During Genre Creation</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Ensure that when a user navigates away by selecting 'Books' during the genre creation process, the data is not saved and the user is redirected to the Books page.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the genre list page.
+- Step 2: Click the 'Create new' button to start the process of adding a new genre.
+- Step 3: Begin entering data into the form fields for the new genre.
+- Step 4: Before pressing the 'Submit' button, select the menu item 'Books'.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>The data entered in the form is not saved to the database, and the Books page is displayed with updated data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>erify Successful Genre Creation and Navigation Away by 'Books'</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>User Navigates Away by Selecting "Genres"</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Navigate Away by Selecting 'Genres' During Genre Creation</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Verify that navigating away by selecting 'Genres' from the menu during the genre creation process cancels the operation and does not save the data.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the genre list page.
+- Step 2: Click the 'Create new' button to start the genre creation process.
+- Step 3: Start entering genre data into the form fields.
+- Step 4: Before pressing the 'Submit' button, select 'Genres' from the menu to navigate away.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>The genre creation process is cancelled, data is not saved in the database, and the list of genre records is displayed without the new genre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>User Navigates Away by Selecting "Authors"</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Navigate Away to 'Authors' Before Submitting New Genre</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Verify that navigating away to 'Authors' before submitting a new genre cancels the operation and does not save data</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the genre list page.
+- Step 2: Click the 'Create new' button to start adding a new genre.
+- Step 3: Start entering data into the form fields for the new genre.
+- Step 4: Before pressing 'Submit', select 'Authors' from the menu to navigate away.</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>The application does not save the entered genre data and displays the 'Authors' page.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>User Navigates Away by Selecting "Home"</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Navigate Away to 'Home' Before Submitting New Genre</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Verify that navigating away to 'Home' before submitting a new genre cancels the operation and does not save data to the database.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the genre list page.
+- Step 2: Click the 'Create new' button to start adding a new genre.
+- Step 3: Start entering data into the form fields for the new genre.
+- Step 4: Before pressing the 'Submit' button, select the 'Home' menu item to navigate away.</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>The application does not save the entered data to the database and the Home page is displayed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>User Navigates Away by Selecting "API"</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Navigate Away by Selecting 'API' During Genre Creation</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Verify that when a user navigates away by selecting 'API' during the genre creation process, the data is not saved and the API page is displayed.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the genre list page.
+- Step 2: Click the 'Create new' button to start the process of adding a new genre.
+- Step 3: Begin entering data into the form fields for the new genre.
+- Step 4: Before pressing the 'Submit' button, select the menu item 'API'.</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>The application does not save the entered genre data and displays the API page.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Display the list of authors</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1. Display First Page of Authors</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Verify Display of First Page of Authors</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Verify that the application correctly displays the first page of authors including id, Name, and Bio columns when the 'Authors' item is selected.</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>- Step 1: Launch the application.
+- Step 2: Navigate to the 'Authors' section by selecting the item 'Authors'.</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>The application displays the first page of authors showing up to 10 items. Each item includes the columns: id, Name, and Bio.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2. Navigate to Next Page of Authors</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Navigate to Next Page of Authors Using Next Button</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Verify that the user can navigate to the next page of authors by clicking the 'Next' button</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the application's main page.
+- Step 2: Select the item 'Authors' from the main menu or page list.
+- Step 3: Verify that the list of authors is displayed with up to 10 items on the page.
+- Step 4: Click the 'Next' button located below the records in the pagination block.</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>The application displays the next 10 records of authors in the database on a new page.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Navigate to Next Page of Authors Using Page Number</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Verify that the user can navigate to the next page of authors by clicking on the page number in the pagination block</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the application's main page.
+- Step 2: Select the item 'Authors' from the main menu or page list.
+- Step 3: Verify that the list of authors is displayed with up to 10 items on the first page.
+- Step 4: Identify the pagination block below the list of authors.
+- Step 5: Click on the number '2' or the next sequential number available in the pagination block.</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>The application displays the next 10 records of authors in the database on the page corresponding to the number clicked in the pagination block.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>3. Navigate to a Specific Page of Authors</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Navigate to Authors Page via Navbar</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Verify that users can navigate to the Authors page using the navigation bar and see the list of authors.</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>- Step 1: Open the application.
+- Step 2: Locate the navigation bar.
+- Step 3: Click on the 'Authors' item in the navigation bar.</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>The application displays the Authors page with a list of authors, showing the columns for id, Name, and Bio. Up to 10 authors are displayed on the page.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Pagination Functionality on Authors Page</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Verify that users can navigate through different pages of authors using the pagination controls.</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the Authors page by clicking on the 'Authors' item in the navigation bar.
+- Step 2: Scroll down to the bottom of the list of authors to locate the pagination block.
+- Step 3: Click on the 'Next' button in the pagination block.
+- Step 4: Alternatively, click on a page number in the pagination block to navigate to that specific page.</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Upon clicking the 'Next' button, the application displays the next 10 records of authors. When a specific page number is clicked, the application displays the authors corresponding to that page. Each page shows up to 10 items, with columns for id, Name, and Bio.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>4. Last Page of Authors Displayed</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Verify Display of Last Page of Authors</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Verify that the application correctly displays the last page of authors when navigating through pagination.</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the 'Authors' section of the application.
+- Step 2: Observe the pagination block below the list of authors.
+- Step 3: Click on the highest page number visible in the pagination block.
+- Step 4: If a 'Next' button is visible, click on it until it is no longer available.</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>The application displays the last page of authors, showing up to 10 items. The 'Next' button is either not visible or disabled. The columns for id, Name, and Bio are correctly displayed for each author.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Verify Last Page Content When Less Than 10 Authors</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Ensure that the application correctly handles and displays the last page when there are less than 10 authors to display.</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the 'Authors' section of the application.
+- Step 2: If the total number of authors is less than 10, observe the displayed list.
+- Step 3: If the total number of authors is more than 10, click on the highest page number in the pagination block until reaching the last page.</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>The application displays the last page of authors correctly, even if there are less than 10 authors on this page. All available author records are shown with their id, Name, and Bio.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Display the list of genres</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1. Viewing the First Page of Genres</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Viewing the First Page of Genres</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Verify that the user can view the first page of genres with up to 10 items displayed</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the application's homepage.
+- Step 2: Select the item 'Genres' from the main menu or navigation bar.
+- Step 3: Observe the list of genres displayed on the page.</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>The application displays the first page of the genres list, showing up to 10 items. Each item should display an id, name, and description.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2. Navigating to the Next Page of Genres</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Navigate to the Next Page of Genres Using 'Next' Button</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Verify that the user can navigate to the next page of genres by clicking the 'Next' button and that the next 10 records are displayed correctly.</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the main page of the application.
+- Step 2: Select the item 'Genres' from the main menu or the designated area.
+- Step 3: Observe the list of genres displayed on the first page, ensuring it shows up to 10 items.
+- Step 4: Scroll down to the bottom of the page to locate the pagination block.
+- Step 5: Click the 'Next' button located in the pagination block.</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>The application should navigate to the next page, displaying the next 10 records of genres. The list should include the columns: id, Name, and Description for each genre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>3. Navigating to a Specific Page of Genres</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Navigate to Genres Page via Menu Selection</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Verify that the user can navigate to the Genres page by selecting the 'Genres' item from the menu and that the first page of genres is displayed correctly.</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>- Step 1: Open the application.
+- Step 2: Locate the menu item labeled 'Genres' and click on it.</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>The application displays the Genres page with a list of genres. The list should show up to 10 items, each with an id, name, and description.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Navigate to Next Page of Genres</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Verify that the user can navigate to the next page of genres by clicking the 'Next' button and that the next 10 records are displayed correctly.</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the Genres page by selecting the 'Genres' item from the menu.
+- Step 2: Scroll down to the bottom of the page to locate the pagination block.
+- Step 3: Click on the 'Next' button located in the pagination block.</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>The application displays the second page of genres with the next 10 items, each with an id, name, and description.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Navigate to a Specific Page of Genres Using Page Number</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Verify that the user can navigate to a specific page of genres by clicking on the corresponding page number in the pagination block.</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the Genres page by selecting the 'Genres' item from the menu.
+- Step 2: Scroll down to the bottom of the page to locate the pagination block.
+- Step 3: Identify the page number the user wants to navigate to and click on that number in the pagination block.</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>The application displays the selected page of genres with up to 10 items, each with an id, name, and description.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>4. Viewing the Last Page of Genres</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>viewing the Last Page of Genres Using 'Next' Button</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Viewing the Last Page of Genres Using Page Number</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Verify that the user can navigate to the last page of genres by clicking the last page number in the pagination block.</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the 'Genres' section of the application.
+- Step 2: Observe the pagination block below the list of genres.
+- Step 3: Click the last page number shown in the pagination block.
+- Step 4: Observe the list of genres on the last page.</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>The user should be taken directly to the last page of genres, displaying up to 10 items with their 'id', 'Name', and 'Description'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>5. Attempting to Navigate Beyond the Last Page of Genres</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Attempting to Navigate Beyond the Last Page of Genres</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Verify that the application prevents navigation beyond the last page of genres and handles the attempt gracefully</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the 'Genres' section of the application.
+- Step 2: Identify the last page number by observing the pagination block.
+- Step 3: Click the 'Next' button on the last page of genres.
+- Step 4: Alternatively, if there is a way to input a page number, enter a page number greater than the last page and submit.</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>The application should either disable the 'Next' button on the last page, not respond to the click, or display a message indicating the user is on the last page. If a page number greater than the last is entered, the application should display an error message or redirect the user to the last page.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Display the list of books</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
           <t>1. Scenario: Date Range Not Specified</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>Display Books Without Date Range Specified</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>Verify that the application displays the list of books without any date range specified by the user.</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the 'Books' section of the application.
 - Step 2: Observe the list of books displayed without entering any date range.</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>The application displays the list of books without filtering by date range. The list should show up to 10 items per page with columns for id, Title, Author, Genre, and Publication date.</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
         <is>
           <t>Pagination Functionality Without Date Range</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>Verify that the pagination functionality works correctly without any date range specified.</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the 'Books' section of the application.
 - Step 2: Observe the initial list of books displayed without entering any date range.
@@ -886,116 +2386,140 @@
 - Step 4: Observe the next set of books displayed.</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>Upon clicking the 'Next' button, the application should display the next 10 records of books without applying any date range filter. The list should continue to show columns for id, Title, Author, Genre, and Publication date.</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr">
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
         <is>
           <t>2. Scenario: Date Range Format Incorrect</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>Verify date range format incorrect message for book list filtering</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>Verify that the application displays an error or warning message when the user inputs an incorrect date range format for filtering the book list.</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the 'Books' section of the application.
 - Step 2: In the date range input forms above the list of books, enter an incorrect date format. For example, use 'dd/mm/yyyy' instead of 'mm/dd/yyyy', or input text that is not a date.
 - Step 3: Click the refresh button to the right from the date inputs.</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>The application should display an error or warning message indicating that the date range format is incorrect.</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
         <is>
           <t>Verify no books displayed with incorrect date range format</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>Verify that the application does not display any books when the user inputs an incorrect date range format for filtering.</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the 'Books' section of the application.
 - Step 2: In the date range input forms above the list of books, enter an incorrect date format (e.g., 'abcd' or '32/13/2020').
 - Step 3: Click the refresh button to the right from the date inputs.</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>The application should not display any books and may show a message indicating no books found due to incorrect date range format.</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
         <is>
           <t>3. Successful display of the first page of books</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>Verify successful display of the first page of books without filters</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>Verify that the application successfully displays the first page of books without applying any date filters</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the application's main page.
 - Step 2: Select the item 'Books' from the main menu or the designated area.
 - Step 3: Observe the list of books displayed on the page.</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>The application displays the first page of the list of books, showing up to 10 items. Each item should display the book's id, title, author, genre, and publication date.</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr">
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Verify pagination functionality on the books list page</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Verify filtering books by publication date</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr">
         <is>
           <t>4. Navigation to the next page of books</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Navigate to the Next Page of Books Using 'Next' Button</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>Verify that the user can navigate to the next page of books by clicking the 'Next' button</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the main page of the application.
 - Step 2: Select the item 'Books' from the available options.
@@ -1003,30 +2527,42 @@
 - Step 4: Click the 'Next' button located below the records in the pagination block.</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>The application displays the next 10 records of the books in the database on a new page.</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr">
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Navigate to the Next Page of Books Using Page Number</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr">
         <is>
           <t>5. Navigation to a specific page of books</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>Navigation to a specific page of books via pagination</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>Verify that the user can navigate to a specific page of books using the pagination feature</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the 'Books' section from the main menu.
 - Step 2: Observe the list of books displayed on the first page.
@@ -1034,26 +2570,26 @@
 - Step 4: Observe the list of books on the second page.</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>The user should be able to see the next 10 records of books on the second page after clicking the 'Next' button.</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
         <is>
           <t>Navigation to a specific page of books by page number</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>Verify that the user can navigate to a specific page of books by clicking on the page number in the pagination block</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the 'Books' section from the main menu.
 - Step 2: Observe the list of books displayed on the first page.
@@ -1061,30 +2597,42 @@
 - Step 4: Observe the list of books on the second page.</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>The user should be able to see the next 10 records of books on the second page after clicking on the page number '2'.</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr">
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Filtering books by publication date</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
         <is>
           <t>6. Last page of books display</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>Verify Last Page Navigation with Default Book List</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>Ensure that the user can navigate to the last page of the book list using the pagination feature.</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the 'Books' section of the application.
 - Step 2: Observe the list of books displayed on the first page.
@@ -1092,26 +2640,26 @@
 - Step 4: Observe the list of books on the last page.</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>The last page of books is displayed, showing up to 10 items, and the 'Next' button is disabled if there are no more records to display.</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
         <is>
           <t>Verify Last Page Navigation with Date Filter Applied</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>Ensure that the user can navigate to the last page of the filtered book list by publication date.</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the 'Books' section of the application.
 - Step 2: Enter a specific date range in the date range input forms above the list of books.
@@ -1121,140 +2669,248 @@
 - Step 6: Observe the list of books on the last page after applying the date filter.</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>The last page of the filtered list of books by publication date is displayed, showing up to 10 items, and the 'Next' button is disabled if there are no more records to display within the specified date range.</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr">
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr">
         <is>
           <t>7. Attempt to navigate beyond the last page of books</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>Attempt to navigate beyond the last page of books via Next button</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>Verify that the user cannot navigate beyond the last page of books when using the Next button</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the 'Books' section of the application.
 - Step 2: If not already on the last page, click the 'Next' button repeatedly until reaching the last page of books.
 - Step 3: Once on the last page, attempt to click the 'Next' button again.</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>The application should not navigate to a new page or display an error message indicating there are no more pages/books to display.</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
         <is>
           <t>Attempt to navigate beyond the last page of books by selecting a page number</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>Verify that the user cannot navigate beyond the last available page by selecting a page number that doesn't exist</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the 'Books' section of the application.
 - Step 2: Identify the last available page number by observing the pagination block.
 - Step 3: Attempt to select a page number greater than the last available page by modifying the URL or using developer tools (if the UI does not allow direct input).</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>The application should either redirect the user to the last available page or display an error message indicating the requested page does not exist.</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Display author details</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Display Author Details Successfully</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Display Author Details Successfully</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Verify that the application displays the author's details correctly when a user clicks on the author's title from the author list page.</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the author list page on the application.
+- Step 2: Identify an author from the list and click on the 'Title' of that specific author.
+- Step 3: Observe the information displayed on the author details page.</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>The application should display the author details page with the following columns correctly filled: id (unique author number), Name, and Bio (author's biography).</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>Display genre details</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr">
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr">
         <is>
           <t>1. Successful Genre Details Display</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>Verify Genre Details Display Upon Clicking Genre Name</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>Ensure that the details of a genre are correctly displayed when a user clicks on the genre name from the genre list page.</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the genre list page.
 - Step 2: Identify and click on the 'Name' of a specific genre from the list.
 - Step 3: Observe the information displayed on the genre details page.</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>The application should display the details of the selected genre, including columns for id (unique genre number), Name, and Description.</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Display book details</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Successful Display of Book Details</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Verify Display of Book Details</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Ensure that clicking on the title of a book from the book list page successfully displays all the book details as specified.</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list page.
+- Step 2: Identify a book from the list and click on the 'Title' of that specific book.
+- Step 3: Observe the information displayed on the book details page.</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>The book details page should display the following columns with correct information: id (unique book number), Title, Author, Genre, Description, Publication date.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>Edit the book</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr">
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
         <is>
           <t>UpdateBook_InvalidTitle</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>UpdateBook_InvalidTitle_EmptyField</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>Verify that the system displays an incorrect data message when the title field is left empty during book update.</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the book list/details page.
 - Step 2: Click the 'Update' button next to the book you want to update.
@@ -1263,26 +2919,26 @@
 - Step 5: Press the 'Submit' button.</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>An incorrect data message related to the empty 'Title' field is displayed.</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
         <is>
           <t>UpdateBook_InvalidTitle_SpecialCharacters</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>Verify that the system displays an incorrect data message when the title field contains special characters.</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the book list/details page.
 - Step 2: Click the 'Update' button next to the book you want to update.
@@ -1291,56 +2947,56 @@
 - Step 5: Press the 'Submit' button.</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>An incorrect data message related to the 'Title' field containing special characters is displayed.</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr">
         <is>
           <t>UpdateBook_InvalidTitle_ExceedCharacterLimit</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>Verify that the system displays an error message when the Title field exceeds the character limit</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the book list/details page.
 - Step 2: Click the 'Update' button next to the book you wish to update.
 - Step 3: Enter a title in the 'Title' field that exceeds the character limit (if applicable), fill in other mandatory fields with valid data, and press the 'Submit' button.</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>An error message is displayed indicating that the Title field exceeds the character limit.</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr">
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
         <is>
           <t>UpdateBook_InvalidAuthor</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>UpdateBook_InvalidAuthor_ErrorMessage</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>Verify that the system displays an error message when attempting to update a book with an invalid author name</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the book list/details page.
 - Step 2: Click the 'Update' button next to the book you wish to update.
@@ -1349,30 +3005,42 @@
 - Step 5: Press the 'Submit' button.</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>The system should display an error message indicating that the author name is invalid.</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr">
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>UpdateBook_CancelOperation_NoUpdate</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr"/>
+      <c r="B103" t="inlineStr">
         <is>
           <t>UpdateBook_InvalidGenre</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>UpdateBook_InvalidGenre_ErrorMessage</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>Verify that the system displays an error message when an invalid genre is entered during the book update process.</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the book list/details page.
 - Step 2: Click the 'Update' button next to the book you wish to update.
@@ -1381,30 +3049,42 @@
 - Step 5: Press the 'Submit' button.</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>An error message related to the invalid genre input is displayed, indicating that the genre entered is not valid.</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr">
+    <row r="104">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>UpdateBook_CancelOperationWithInvalidGenre</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="inlineStr">
         <is>
           <t>UpdateBook_InvalidDescription</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>UpdateBook_InvalidDescription_EmptyField</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>Verify that the system displays an incorrect data message when the description field is left empty during book update.</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the book list/details page.
 - Step 2: Click the 'Update' button next to the book you want to update.
@@ -1413,26 +3093,26 @@
 - Step 5: Press the 'Submit' button.</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>An incorrect data message is displayed indicating that the 'Description' field cannot be empty.</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr">
+    <row r="106">
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
         <is>
           <t>UpdateBook_InvalidDescription_TooShort</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>Verify that the system displays an incorrect data message when the description field contains text that is too short.</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the book list/details page.
 - Step 2: Click the 'Update' button next to the book you want to update.
@@ -1441,26 +3121,26 @@
 - Step 5: Press the 'Submit' button.</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>An incorrect data message is displayed indicating that the 'Description' field contains text that is too short.</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr">
+    <row r="107">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
         <is>
           <t>UpdateBook_InvalidDescription_SpecialCharacters</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>Verify that the system displays an incorrect data message when the description field contains invalid special characters.</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the book list/details page.
 - Step 2: Click the 'Update' button next to the book you want to update.
@@ -1469,30 +3149,30 @@
 - Step 5: Press the 'Submit' button.</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>An incorrect data message is displayed indicating that the 'Description' field contains invalid special characters.</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr">
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="inlineStr">
         <is>
           <t>UpdateBook_InvalidPublicationDate</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>UpdateBook_InvalidPublicationDate_FormatError</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>Verify that the system displays an error message when the publication date is entered in an incorrect format during book update.</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the book list/details page.
 - Step 2: Click the 'Update' button next to the book you wish to update.
@@ -1501,26 +3181,26 @@
 - Step 5: Press the 'Submit' button.</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>An error message is displayed indicating the incorrect format of the Publication date.</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr">
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr">
         <is>
           <t>UpdateBook_InvalidPublicationDate_FutureDate</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>Verify that the system displays an error message when the publication date is set to a future date.</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the book list/details page.
 - Step 2: Click the 'Update' button next to the book you wish to update.
@@ -1529,30 +3209,42 @@
 - Step 5: Press the 'Submit' button.</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>An error message is displayed indicating that the publication date cannot be in the future.</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr">
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>UpdateBook_CancelOperationWithInvalidPublicationDate</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="inlineStr">
         <is>
           <t>Successful Book Update</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>Successful Book Record Update</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>Verify that a user can successfully update a book record with valid data and the updated record is reflected in the book list.</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the book list/details page.
 - Step 2: Click the 'Update' button next to the book you wish to update.
@@ -1560,30 +3252,66 @@
 - Step 4: Press the 'Submit' button.</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>The book record is successfully updated in the database, and the user is redirected to the list of books where the updated record is displayed.</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr">
+    <row r="112">
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Unsuccessful Book Update with Invalid Data</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr"/>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Cancel Book Update Operation</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Navigation Away from Update Page Without Saving</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="inlineStr">
         <is>
           <t>Book Update with Incorrect Data</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>Edit Book with Incorrect Title</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>Verify that the system displays an incorrect data message when a user attempts to update a book with an incorrect title format.</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the book list/details page.
 - Step 2: Click the 'Update' button next to the book you wish to update.
@@ -1592,26 +3320,26 @@
 - Step 5: Press the 'Submit' button.</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>An incorrect data message related to the book title is displayed.</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
+    <row r="116">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
         <is>
           <t>Edit Book with Future Publication Date</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>Verify that the system displays an incorrect data message when a user attempts to update a book with a future publication date.</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the book list/details page.
 - Step 2: Click the 'Update' button next to the book you wish to update.
@@ -1620,30 +3348,42 @@
 - Step 5: Press the 'Submit' button.</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>An incorrect data message related to the publication date is displayed.</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr">
+    <row r="117">
+      <c r="A117" t="inlineStr"/>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Edit Book and Cancel Operation</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" t="inlineStr">
         <is>
           <t>User presses “Cancel” button before submitting updated book data</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>Verify cancel operation during book data update</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>Ensure that pressing the 'Cancel' button before submitting updated book data does not update the book in the database and redirects the user to the book list.</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the book list/details page.
 - Step 2: Click the 'Update' button next to the book you wish to update.
@@ -1651,26 +3391,26 @@
 - Step 4: Before pressing the 'Submit' button, click the 'Cancel' button.</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>The book data is not updated in the database, and the user is redirected to the list of book records.</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
+    <row r="119">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr">
         <is>
           <t>Verify navigation after cancel operation during book update</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>To confirm that after pressing the 'Cancel' button during book update, the user is redirected to the book list and can navigate to other sections without updating the book.</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>- Step 1: Go to the book list/details page and click the 'Update' button for a book.
 - Step 2: Begin to enter or modify the book's details in the form.
@@ -1678,30 +3418,42 @@
 - Step 4: After being redirected to the book list, select another menu item such as 'Genres', 'Authors', 'Home', or 'API'.</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>User is redirected to the book list after pressing 'Cancel', and can navigate to other sections without the book data being updated in the database.</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>User navigates to "Book" menu item before submitting updated book data</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>User navigates to "Books" menu item before submitting updated book data</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Navigate to Books Menu and Cancel Book Data Update</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr"/>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr">
         <is>
           <t>Navigate to Books Menu and Submit Updated Book Data</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>Verify that the user can navigate to the Books menu item, edit a book's details, and successfully submit the updated data.</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the Books menu item from the main navigation bar.
 - Step 2: On the Books list/details page, click the 'Update' button next to the book you wish to update.
@@ -1709,30 +3461,30 @@
 - Step 4: Press the 'Submit' button to submit the updated book data.</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>The book's data is updated in the database, and the list of books with the updated records is displayed.</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr">
+    <row r="122">
+      <c r="A122" t="inlineStr"/>
+      <c r="B122" t="inlineStr">
         <is>
           <t>User navigates to "Genres" menu item before submitting updated book data</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>Navigate to Genres menu item before submitting updated book data</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>Verify that navigating to the Genres menu item before submitting updated book data cancels the update operation and displays the Genres page.</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the book list/details page.
 - Step 2: Click the 'Update' button next to the book you wish to update.
@@ -1740,30 +3492,42 @@
 - Step 4: Before pressing the 'Submit' button, navigate to the 'Genres' menu item by selecting it from the navigation menu.</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>The book update operation is canceled, and the Genres page is displayed without updating the book in the database.</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr">
+    <row r="123">
+      <c r="A123" t="inlineStr"/>
+      <c r="B123" t="inlineStr">
         <is>
           <t>User navigates to "Authors" menu item before submitting updated book data</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Successful book data update and navigation to Authors menu</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr"/>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr">
         <is>
           <t>Navigate to Authors menu before submitting updated book data</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>Verify that navigating to 'Authors' menu before submitting updated book data cancels the update operation and displays the Authors page.</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the book list/details page.
 - Step 2: Click the 'Update' button next to the book you wish to update.
@@ -1771,30 +3535,30 @@
 - Step 4: Before pressing the 'Submit' button, click on the 'Authors' menu item.</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>The book data update operation is canceled, and the Authors page is displayed without updating the book in the database.</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr">
+    <row r="125">
+      <c r="A125" t="inlineStr"/>
+      <c r="B125" t="inlineStr">
         <is>
           <t>User navigates to "Home" menu item before submitting updated book data</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Navigate to Home Before Submitting Updated Book Data</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>Verify that navigating to the Home menu item before submitting updated book data cancels the update operation and displays the home page.</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the book list/details page.
 - Step 2: Click the 'Update' button next to the book you wish to update.
@@ -1802,30 +3566,54 @@
 - Step 4: Before pressing the 'Submit' button, click on the 'Home' menu item.</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>The book data update operation is canceled, and the home page is displayed without updating the book in the database.</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr">
+    <row r="126">
+      <c r="A126" t="inlineStr"/>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Successful Book Data Update and Navigate to Home</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr"/>
+      <c r="B127" t="inlineStr">
         <is>
           <t>User navigates to "API" menu item before submitting updated book data</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Successfully update book data and then navigate to API menu item</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr"/>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr">
         <is>
           <t>Navigate to API menu item before submitting updated book data</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>Verify that navigating to the API menu item before submitting updated book data cancels the update operation and displays the API page.</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the book list/details page.
 - Step 2: Click the 'Update' button next to the book you wish to update.
@@ -1833,81 +3621,1577 @@
 - Step 4: Before pressing the 'Submit' button, navigate to the 'API' menu item.</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>The book update operation is canceled, and the API page is displayed without updating the book data in the database.</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="129">
+      <c r="A129" t="inlineStr"/>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Edit the author</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr"/>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>UpdateAuthor_WithEmptyName</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Update Author with Empty Name Field</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Verify that the application prevents updating an author with an empty name field and displays an appropriate error message.</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the author list/details page.
+- Step 2: Click the 'Update' button next to the author you wish to update.
+- Step 3: Clear the 'Name' field to make it empty.
+- Step 4: Enter or modify data in the 'Bio' field.
+- Step 5: Press the 'Submit' button.</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>The application should display an error message indicating that the name field cannot be empty and the author record should not be updated in the database.</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr"/>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>UpdateAuthor_WithEmptyBio</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Update Author with Empty Bio Field</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Verify that the system allows updating an author's record with an empty 'Bio' field and displays the updated list of authors.</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the author list/details page.
+- Step 2: Click the 'Update' button next to the author you wish to update.
+- Step 3: Clear the 'Bio' field, leaving it empty.
+- Step 4: Fill in other required fields with valid data.
+- Step 5: Press the 'Submit' button.</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>The author's record is updated with an empty 'Bio' field, and the updated list of authors is displayed without any error messages.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr"/>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Successful Author Update</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Successful Author Record Update</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Verify that the author record is successfully updated in the database with valid data</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the author list/details page.
+- Step 2: Click the 'Update' button next to the author you wish to update.
+- Step 3: On the displayed form, enter valid data for the author's Name and Bio.
+- Step 4: Press the 'Submit' button.</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>The author record is successfully updated in the database, and the list of authors with the updated record is displayed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr"/>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Author Update with Incorrect Data</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Edit Book with Incorrect Data</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr"/>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Cancel Operation by Pressing "Cancel" Button</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Cancel Editing Author by Pressing 'Cancel' Button</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Verify that pressing the 'Cancel' button while editing an author's details cancels the operation and does not update the author's information in the database.</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the author list/details page.
+- Step 2: Click the 'Update' button next to the author you wish to update.
+- Step 3: On the displayed form, start entering or modifying the author's Name and Bio.
+- Step 4: Press the 'Cancel' button before submitting the form.</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>The operation is canceled, no data is updated in the database, and the list of author records is displayed to the user.</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr"/>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Cancel Operation by Selecting "Books" Menu Item</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Cancel Edit Author Operation by Selecting 'Books' Menu Item</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Verify that the author's data is not updated in the database and the user is navigated to the 'Books' page when the 'Books' menu item is selected during the author edit operation.</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the author list/details page.
+- Step 2: Click the 'Update' button next to the author you wish to update.
+- Step 3: Begin entering or modifying the data in the author edit form fields.
+- Step 4: Instead of clicking the 'Submit' button, select the 'Books' menu item.</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>The author's data is not updated in the database, and the user is redirected to the 'Books' page displaying the list of books or book details.</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr"/>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Cancel Operation by Selecting "Genres" Menu Item</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Cancel Edit Author Operation by Selecting 'Genres' Menu Item</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Verify that the author's data is not updated in the database and the user is navigated to the 'Genres' page when selecting 'Genres' from the menu during an author edit operation.</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the author list/details page.
+- Step 2: Click the 'Update' button next to the author you wish to update.
+- Step 3: Begin entering or modifying the data in the author's edit form fields.
+- Step 4: Without pressing the 'Submit' button, select the 'Genres' menu item.</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>The author's data remains unchanged in the database, and the user is redirected to the 'Genres' page.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr"/>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Cancel Operation by Selecting "Authors" Menu Item</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Cancel Edit Author Operation by Selecting 'Authors' Menu Item</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Verify that the author's data is not updated in the database and the user is redirected to the list of authors when the 'Authors' menu item is selected during an edit operation</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the author list/details page.
+- Step 2: Click the 'Update' button next to the author you wish to update.
+- Step 3: Begin entering or modifying the data in the form fields provided for the author's Name and Bio.
+- Step 4: Before submitting the form, select the 'Authors' menu item.</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>The author's data is not updated in the database, and the user is redirected to the list of authors records.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr"/>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Cancel Operation by Selecting "Home" Menu Item</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Cancel Edit Author Operation by Selecting 'Home' Menu Item</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Verify that the author's data update operation is cancelled and the user is navigated to the Home page without updating the data in the database when selecting 'Home' from the menu.</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the author list/details page.
+- Step 2: Click the 'Update' button next to the author you wish to update.
+- Step 3: Begin entering or modifying the data in the form fields for the author.
+- Step 4: Instead of clicking the 'Submit' button, select the 'Home' menu item.</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>The author's data is not updated in the database, and the user is redirected to the Home page. The list of authors should reflect no changes to the updated author's record.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr"/>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Cancel Operation by Selecting "API" Menu Item</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Cancel Editing Author by Selecting 'API' Menu Item</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Verify that the author's data is not updated in the database and the user is redirected to the 'API' form when the 'API' menu item is selected during the edit operation.</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the author list/details page.
+- Step 2: Click the 'Update' button next to the author you wish to update.
+- Step 3: Begin entering or modifying the data in the form fields for the author.
+- Step 4: Select the 'API' menu item before submitting the form.</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>The author's data is not updated in the database, and the user is redirected to the 'API' form.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr"/>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Edit the genre</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr"/>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>1. Scenario: Update Genre with Incorrectly Entered Genre Name</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Update Genre with Incorrectly Entered Genre Name</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Verify that the system displays incorrect data messages when a genre name is entered incorrectly during an update operation</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the genre list/details page.
+- Step 2: Click the 'Update' button next to the genre you wish to update.
+- Step 3: In the form displayed, enter an incorrectly formatted genre name in the 'Name' field.
+- Step 4: Fill in the 'Description' field with valid data.
+- Step 5: Press the 'Submit' button.</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>The system should display messages indicating the incorrect data entry for the genre name.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr"/>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2. Scenario: Update Genre with Incorrectly Entered Genre Description</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Update Genre with Incorrectly Entered Description</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Verify that the system displays incorrect data messages when a genre description is entered incorrectly during an update operation.</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the genre list/details page.
+- Step 2: Click the 'Update' button next to the genre you wish to update.
+- Step 3: In the form displayed, enter or modify the genre's name to a valid name.
+- Step 4: Enter an incorrectly formatted description for the genre.
+- Step 5: Press the 'Submit' button.</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>The system should display messages indicating the description was entered incorrectly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr"/>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>3. Successful Genre Update</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Successful Genre Update with Valid Data</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Verify that the genre can be successfully updated with valid data and the updated genre list is displayed.</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the genre list/details page.
+- Step 2: Click the 'Update' button next to the genre you wish to update.
+- Step 3: On the displayed form, enter valid data for the genre 'Name' and 'Description'.
+- Step 4: Press the 'Submit' button.</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>The genre should be updated in the database, and the list of genres with the updated record should be displayed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr"/>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>4. Genre Update Failure with Error Message</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Verify Genre Update with Incorrect Data</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Ensure that the application displays error messages when incorrect data is entered during genre update.</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the genre list/details page.
+- Step 2: Click the 'Update' button next to the genre you wish to update.
+- Step 3: On the displayed form, enter incorrect data into the 'Name' and/or 'Description' fields.
+- Step 4: Press the 'Submit' button.</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>The application should display error messages related to the incorrect data entered.</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr"/>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Verify Genre Update Failure with System Error Message</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>To confirm that the application displays an appropriate error message when a system error occurs during the genre update process.</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the genre list/details page.
+- Step 2: Click the 'Update' button next to the genre you wish to update.
+- Step 3: Enter valid data into the 'Name' and 'Description' fields.
+- Step 4: Simulate a system error or disconnect the network before pressing 'Submit'.
+- Step 5: Press the 'Submit' button.</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>An error message should be displayed indicating that the genre could not be updated due to a system error.</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr"/>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>5. Cancel operation before data submission</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Cancel Genre Edit Operation Before Data Submission</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Verify that the genre edit operation can be canceled before data submission and ensure no data is updated in the database.</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the genre list/details page.
+- Step 2: Click the 'Update' button next to the genre you wish to update.
+- Step 3: On the genre edit form, start entering new values for the genre details such as Name and Description.
+- Step 4: Before pressing the 'Submit' button, click the 'Cancel' button.</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>The application should not update the genre in the database and should redirect the user to the list of genre records, displaying them without applying the changes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr"/>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Navigate Away from Genre Edit Page Before Submission</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Ensure that navigating away from the genre edit page before submitting the form does not update the genre in the database.</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the genre list/details page.
+- Step 2: Click the 'Update' button next to the genre you wish to update.
+- Step 3: Begin entering or modifying the genre's Name and Description in the provided form fields.
+- Step 4: Without pressing the 'Submit' button, select a different menu item such as 'Books', 'Genres', 'Authors', 'Home', or 'API'.</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>The application should not update the genre in the database and should display the selected page without applying any changes to the genre data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr"/>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>6. Navigation to "Books" before data submission</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Navigate to 'Books' before submitting updated genre data</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Verify that navigating to 'Books' before data submission cancels the update operation and displays the 'Books' page.</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the genre list/details page.
+- Step 2: Click the 'Update' button next to the genre you wish to update.
+- Step 3: Begin entering new data into the genre form fields.
+- Step 4: Before pressing 'Submit', navigate to the 'Books' page by selecting the 'Books' menu item.</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>The genre update operation is canceled, and the 'Books' page is displayed without updating the genre in the database.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr"/>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>7. Navigation to "Genres" before data submission</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Navigate Away from Edit Genre Page Without Saving</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Verify that navigating away from the edit genre page without saving does not update the genre in the database.</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the genre list/details page.
+- Step 2: Click the 'Update' button next to the genre you wish to update.
+- Step 3: Start entering data into the form fields.
+- Step 4: Without pressing 'Submit', select another menu item like 'Books', 'Genres', 'Authors', 'Home', or 'API'.</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>The system should not update the genre in the database and should display the selected page.</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr"/>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>8. Navigation to "Authors" before data submission</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Navigate to 'Authors' before submitting edited genre data</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Verify that navigating to 'Authors' before submitting the form cancels the edit operation and displays the 'Authors' page.</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the genre list/details page.
+- Step 2: Click the 'Update' button next to the genre you wish to edit.
+- Step 3: Begin entering or modifying the data in the genre edit form.
+- Step 4: Before pressing 'Submit', select the menu item 'Authors'.</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>The edit operation is cancelled, and the 'Authors' page is displayed without updating the genre in the database.</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr"/>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>9. Navigation to "Home" before data submission</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Navigation to 'Home' before data submission during genre edit</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Verify that navigating to 'Home' before submitting the updated genre data cancels the edit operation and does not update the genre in the database.</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the genre list/details page.
+- Step 2: Click the 'Update' button next to the genre you wish to update.
+- Step 3: On the genre edit form, start entering new values for the genre's Name and Description fields.
+- Step 4: Before pressing the 'Submit' button, select the 'Home' menu item to navigate away from the edit page.</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>The application navigates to the 'Home' page without updating the genre in the database, and no changes are made to the genre's information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr"/>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>10. Navigation to "API" before data submission</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Verify navigation to 'API' before data submission during genre edit</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Ensure that navigating to 'API' before submitting the edited genre data cancels the edit operation and does not update the genre in the database.</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the genre list/details page.
+- Step 2: Click the 'Update' button next to the genre you wish to update.
+- Step 3: On the displayed form, start entering new values for the genre's 'Name' and 'Description'.
+- Step 4: Before pressing the 'Submit' button, select the menu item 'API'.</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>The application should navigate to the 'API' page without updating the genre in the database, and the genre's details should remain unchanged.</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr"/>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Verify data integrity after canceling genre edit by navigating to 'API'</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>To confirm that the original genre data remains intact in the database after the user navigates to 'API' without submitting the edited data.</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>- Step 1: Note down the current details of a genre from the genre list/details page.
+- Step 2: Click the 'Update' button next to the genre you noted.
+- Step 3: Begin to modify the 'Name' and 'Description' fields but do not submit the form.
+- Step 4: Navigate to 'API' by selecting it from the menu.
+- Step 5: Return to the genre list/details page and locate the same genre.</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>The genre's details should match the original data noted in Step 1, indicating that no changes were made to the database.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr"/>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr"/>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
         <is>
           <t>Remove the genre</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr"/>
-      <c r="B52" t="inlineStr">
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr"/>
+      <c r="B159" t="inlineStr">
         <is>
           <t>1. Successful Genre Deletion</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>Verify successful genre deletion</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t>Ensure that a user can successfully delete a genre and the record is removed from the database</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the genre list/details page.
 - Step 2: Locate the genre you wish to delete and click the 'Delete' button next to it.
 - Step 3: On the confirmation dialog, click the 'Confirm' button to proceed with deletion.</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>The genre should be successfully deleted from the database, and the user should no longer see the deleted genre in the list.</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2. User Cancels Deletion</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
+    <row r="160">
+      <c r="A160" t="inlineStr"/>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr">
         <is>
           <t>Verify cancellation of genre deletion</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D160" t="inlineStr">
         <is>
           <t>Ensure that when a user cancels the deletion of a genre, the genre is not deleted from the database and the user is redirected back to the genre list with the data unchanged.</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>- Step 1: Navigate to the genre list/details page.
 - Step 2: Click the 'Delete' button next to the genre intended for deletion.
 - Step 3: On the confirmation dialog, press the 'Cancel' button.</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>The genre should not be deleted from the database, and the user should be redirected back to the list of genres with all data unchanged.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr"/>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Verify navigation after cancelling genre deletion</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr"/>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2. User Cancels Deletion</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Verify cancellation of genre deletion</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Ensure that when a user cancels the deletion of a genre, the genre is not deleted from the database and the user is redirected back to the genre list with the data unchanged.</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the genre list/details page.
+- Step 2: Click the 'Delete' button next to the genre intended for deletion.
+- Step 3: On the confirmation dialog, press the 'Cancel' button.</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>The genre should not be deleted from the database, and the user should be redirected back to the list of genres with all data unchanged.</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr"/>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Verify navigation after cancelling genre deletion</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Remove the book</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr"/>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Successful Deletion Scenario</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Verify successful deletion of a book</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Ensure that a user can successfully delete a book and the book is removed from the database</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list/details page.
+- Step 2: Locate the book you wish to delete and click the 'Delete' button next to it.
+- Step 3: On the confirmation dialog, click the 'Confirm' button to proceed with the deletion.</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>The book should be successfully deleted from the database, and the book list/details page should no longer display the deleted book.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr"/>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Verify cancellation of book deletion</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Ensure that the book record is not deleted when the user cancels the deletion operation</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list or details page.
+- Step 2: Click the 'Delete' button next to the book intended for deletion.
+- Step 3: On the confirmation dialog, click the 'Cancel' button.</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>The book record is not deleted from the database, and the user is redirected to the updated list of books with the record still present.</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr"/>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Verify navigation after cancelling book deletion</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr"/>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>User Cancels Deletion Scenario</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Verify cancellation of book deletion from the book list page</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Ensure that when a user initiates a deletion of a book from the book list page and then cancels, the book is not deleted from the database and the user is returned to the updated book list.</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list page.
+- Step 2: Locate the book intended for deletion and click the 'Delete' button next to it.
+- Step 3: On the confirmation dialog, press the 'Cancel' button.</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>The book list is displayed without any changes to the book records, indicating the cancellation was successful and no deletion occurred.</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr"/>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Verify navigation after cancelling book deletion</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr"/>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Cancel Deletion and Select "Books"</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Verify canceling the deletion of a book</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Ensure that when a user cancels the deletion of a book, the book is not deleted from the database and the user is redirected back to the list of books.</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list/details page.
+- Step 2: Click the 'Delete' button next to the book intended to be deleted.
+- Step 3: On the confirmation dialog, click the 'Cancel' button.</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>The book should not be deleted from the database, and the user should be redirected back to the list of books with all records intact.</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr"/>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Verify navigation after canceling deletion</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr"/>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Cancel Deletion and Select "Genres"</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Verify canceling the deletion of a book</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Ensure that when a user cancels the deletion of a book, the book is not deleted from the database and the user is redirected back to the list of books.</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list/details page.
+- Step 2: Click the 'Delete' button next to the book intended to be deleted.
+- Step 3: On the confirmation dialog, click the 'Cancel' button.</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>The book should not be deleted from the database, and the user should be redirected back to the list of books with all records intact.</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr"/>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Verify navigation to 'Books' after canceling deletion</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>To confirm that after canceling the deletion of a book, navigating to 'Books' displays the updated list without the book being deleted.</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list/details page.
+- Step 2: Click the 'Delete' button next to the book intended to be deleted.
+- Step 3: On the confirmation dialog, press the 'Cancel' button.
+- Step 4: Select the menu item 'Books'.</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>The user should be redirected to the 'Books' page with an updated list showing that the book was not deleted.</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr"/>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Verify navigation to 'Genres' after canceling deletion</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr"/>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Cancel Deletion and Select "Authors"</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Verify canceling the deletion of a book</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Ensure that when a user cancels the deletion of a book, the book is not deleted from the database and the user is redirected back to the list of books.</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list/details page.
+- Step 2: Click the 'Delete' button next to the book intended to be deleted.
+- Step 3: On the confirmation dialog, click the 'Cancel' button.</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>The book should not be deleted from the database, and the user should be redirected back to the list of books with all records intact.</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr"/>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Verify navigation after canceling deletion</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr"/>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Cancel Deletion and Select "Home"</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Verify canceling the deletion of a book</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Ensure that when a user cancels the deletion of a book, the book is not deleted from the database and the user is redirected back to the list of books.</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list/details page.
+- Step 2: Click the 'Delete' button next to the book intended to be deleted.
+- Step 3: On the confirmation dialog, click the 'Cancel' button.</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>The book should not be deleted from the database, and the user should be redirected back to the list of books with all records intact.</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr"/>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Verify navigation to 'Home' after canceling deletion</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>To confirm that after canceling the deletion of a book, the user can navigate to the 'Home' page without the book being deleted.</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list/details page.
+- Step 2: Click the 'Delete' button next to the book intended to be deleted.
+- Step 3: On the confirmation dialog, click the 'Cancel' button.
+- Step 4: Select the menu item 'Home'.</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>The user is redirected to the 'Home' page, and the book remains undeleted in the database.</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr"/>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Cancel Deletion and Select "API"</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Verify deletion confirmation for a book</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Ensure that the user can delete a book after confirming the deletion operation</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list or details page.
+- Step 2: Click the 'Delete' button next to the book intended for deletion.
+- Step 3: On the confirmation dialog, click the 'Confirm' button.</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>The book record is deleted from the database, and the user is redirected to the updated list of books without the deleted record.</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr"/>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Verify cancellation of book deletion</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Ensure that the book record is not deleted when the user cancels the deletion operation</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the book list or details page.
+- Step 2: Click the 'Delete' button next to the book intended for deletion.
+- Step 3: On the confirmation dialog, click the 'Cancel' button.</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>The book record is not deleted from the database, and the user is redirected to the updated list of books with the record still present.</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr"/>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Verify navigation after cancelling book deletion</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Remove the author</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr"/>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Successful Author Deletion</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Verify successful author deletion</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Ensure that the user can successfully delete an author and the record is removed from the database</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the author list/details page.
+- Step 2: Locate the author you wish to delete and click the 'Delete' button next to their name.
+- Step 3: On the confirmation dialog, click the 'Confirm' button to proceed with the deletion.</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>The author's record should be successfully deleted from the database, and the user should be redirected to the updated list of authors without the deleted record.</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr"/>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Verify cancellation of author deletion</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr"/>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Verify navigation after cancelling author deletion</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>To confirm that after cancelling the deletion of an author, the user can navigate to other sections ('Books', 'Genres', 'Authors', 'Home', 'API') without the author's data being deleted</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the author list/details page.
+- Step 2: Click the 'Delete' button next to the author you wish to delete.
+- Step 3: On the confirmation dialog, press the 'Cancel' button.
+- Step 4: Select any menu item ('Books', 'Genres', 'Authors', 'Home', 'API').</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>After cancellation, navigating to other sections does not delete the author's data, and the corresponding form or page opens with updated data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr"/>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>User Cancels Deletion</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Verify cancellation of author deletion via Cancel button</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Ensure that pressing the 'Cancel' button during the deletion confirmation dialog cancels the deletion process and retains the author's data</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the author list/details page.
+- Step 2: Click the 'Delete' button next to the author you wish to delete.
+- Step 3: On the confirmation dialog, press the 'Cancel' button.</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>The author's data is not deleted from the database, and the user is redirected back to the list of authors, where the previously selected author's data remains unchanged.</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr"/>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Verify navigation after cancelling author deletion</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>To confirm that after cancelling the deletion of an author, the user can navigate to other sections ('Books', 'Genres', 'Authors', 'Home', 'API') without the author's data being deleted</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the author list/details page.
+- Step 2: Click the 'Delete' button next to the author you wish to delete.
+- Step 3: On the confirmation dialog, press the 'Cancel' button.
+- Step 4: Select any menu item ('Books', 'Genres', 'Authors', 'Home', 'API').</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>After cancellation, navigating to other sections does not delete the author's data, and the corresponding form or page opens with updated data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr"/>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>User navigates to "Books" after canceling deletion</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Cancel Deletion and Navigate to Books</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Verify that after cancelling the deletion of an author, the user can navigate to the Books page without the data being deleted.</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the author list/details page.
+- Step 2: Click the 'Delete' button next to the author you wish to delete.
+- Step 3: On the confirmation dialog, press the 'Cancel' button.
+- Step 4: Verify that the list of authors is still displayed.
+- Step 5: Select the menu item 'Books'.</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>The Books page is displayed with updated data, and the author's data previously selected for deletion remains unchanged in the database.</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr"/>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>User navigates to "Genres" after canceling deletion</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Cancel Deletion and Navigate to Genres</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Verify that after cancelling the deletion of an author, the user can navigate to the Genres page without deleting the data</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the author list/details page.
+- Step 2: Click the 'Delete' button next to the author you wish to delete.
+- Step 3: On the confirmation dialog, press the 'Cancel' button.
+- Step 4: Verify that the list of authors is still displayed.
+- Step 5: Select the menu item 'Genres'.</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>The Genres page is displayed with updated data, and the author's data previously selected for deletion remains unchanged in the database.</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr"/>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>User navigates to "Authors" after canceling deletion</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Cancel Deletion and Navigate to Authors</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Verify that after cancelling the deletion of an author, the user can navigate back to the Authors page without the data being deleted.</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the author list/details page.
+- Step 2: Click the 'Delete' button next to the author you wish to delete.
+- Step 3: On the confirmation dialog, press the 'Cancel' button.
+- Step 4: Verify that the list of authors is displayed again.
+- Step 5: Select the menu item 'Authors' to navigate to the Authors page.</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>The user is taken to the Authors page where all authors, including the one that was selected for deletion, are listed. This confirms that the deletion was successfully canceled and the data was not deleted from the database.</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr"/>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>User navigates to "Home" after canceling deletion</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Cancel Deletion and Navigate to Home</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Verify that after canceling the deletion of an author, the user can navigate to the Home page without the author's data being deleted.</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the author list/details page.
+- Step 2: Click the 'Delete' button next to the author you wish to delete.
+- Step 3: On the confirmation dialog, press the 'Cancel' button.
+- Step 4: Verify that the list of authors is still displayed.
+- Step 5: Select the 'Home' menu item to navigate to the Home page.</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>The author's data is not deleted from the database, and the user is successfully navigated to the Home page with all data intact.</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr"/>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>User navigates to "API" after canceling deletion</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Cancel deletion and navigate to API</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Verify that after canceling the deletion of an author, the user can navigate to the API page without deleting the data</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>- Step 1: Navigate to the author list/details page.
+- Step 2: Click the 'Delete' button next to the author you wish to delete.
+- Step 3: On the confirmation dialog, press the 'Cancel' button.
+- Step 4: Verify that the list of authors is still displayed.
+- Step 5: Select the menu item 'API'.</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>The application navigates to the API page without deleting any author data, and the API page displays with updated data.</t>
         </is>
       </c>
     </row>

--- a/code/thu/5.16/output.xlsx
+++ b/code/thu/5.16/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A252"/>
+  <dimension ref="A1:A265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,7 +1126,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">15. Test Scenario: Marking Topic and Vocabulary as Completed/Studied
+          <t xml:space="preserve">1. Test Scenario: Verify Navigation to "Learn New Word" Tab
 </t>
         </is>
       </c>
@@ -1134,7 +1134,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">16. Test Scenario: Redirect to Flashcard Page for Continuous Topic
+          <t xml:space="preserve">2. Test Scenario: Display of Available Lessons
 </t>
         </is>
       </c>
@@ -1142,7 +1142,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">17. Test Scenario: Continuing Incomplete Topic from Home Page
+          <t xml:space="preserve">3. Test Scenario: Lesson Selection Functionality
 </t>
         </is>
       </c>
@@ -1150,7 +1150,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">18. Test Scenario: Disabled 'Previous' Button on First Flashcard
+          <t xml:space="preserve">4. Test Scenario: Display of Lesson Details and Topics
 </t>
         </is>
       </c>
@@ -1158,7 +1158,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">19. Test Scenario: Display Message for No Previous Vocabulary
+          <t xml:space="preserve">5. Test Scenario: Topic Selection and Flashcard Page Navigation
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve">20. Test Scenario: Exit Functionality from Flashcard Study
+          <t xml:space="preserve">6. Test Scenario: Display of Flashcard Details (Front View)
 </t>
         </is>
       </c>
@@ -1174,24 +1174,31 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>21. Test Scenario: Marking Topic as Incomplete on Exit</t>
+          <t xml:space="preserve">7. Test Scenario: Flashcard Flip Functionality (Back View)
+</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr"/>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8. Test Scenario: Navigation to Next Flashcard
+</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Handbook.txt</t>
+          <t xml:space="preserve">9. Test Scenario: Navigation to Previous Flashcard
+</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. Test Scenario: Verify Navigation to Handbook Tab
+          <t xml:space="preserve">10. Test Scenario: Completion Notification and Options Display
 </t>
         </is>
       </c>
@@ -1199,7 +1206,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">2. Test Scenario: Display Learner's Vocabulary List
+          <t xml:space="preserve">11. Test Scenario: Redirect to Lesson Page from Completion Page
 </t>
         </is>
       </c>
@@ -1207,7 +1214,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">3. Test Scenario: Scroll Through Vocabulary List
+          <t xml:space="preserve">12. Test Scenario: Back Button Exit Confirmation During Flashcard Study
 </t>
         </is>
       </c>
@@ -1215,7 +1222,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">4. Test Scenario: Search Vocabulary Functionality
+          <t xml:space="preserve">13. Test Scenario: Continue Studying from Completion Notification
 </t>
         </is>
       </c>
@@ -1223,7 +1230,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">5. Test Scenario: Search Results for Valid Vocabulary
+          <t xml:space="preserve">14. Test Scenario: Incomplete Topic Continuation from Home Page
 </t>
         </is>
       </c>
@@ -1231,7 +1238,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">6. Test Scenario: Search for Meaningless Vocabulary
+          <t xml:space="preserve">15. Test Scenario: Previous Button Disabled on First Flashcard
 </t>
         </is>
       </c>
@@ -1239,7 +1246,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve">7. Test Scenario: No Results Notification for Meaningless Vocabulary Search
+          <t xml:space="preserve">16. Test Scenario: Exit Flashcard Study via Back Button
 </t>
         </is>
       </c>
@@ -1247,7 +1254,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">8. Test Scenario: Uncheck Vocabulary for Daily Review Test
+          <t xml:space="preserve">17. Test Scenario: Marking Topic and Vocabulary as Completed/Studied
 </t>
         </is>
       </c>
@@ -1255,7 +1262,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">9. Test Scenario: Check Vocabulary for Daily Review Test
+          <t xml:space="preserve">18. Test Scenario: Reviewing Completed Topics and Studied Vocabulary
 </t>
         </is>
       </c>
@@ -1263,7 +1270,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve">10. Test Scenario: Reflect Changes in Daily Review Test Based on Vocabulary Selection
+          <t xml:space="preserve">19. Test Scenario: System Behavior on Pressing 'Stay' in Exit Confirmation
 </t>
         </is>
       </c>
@@ -1271,31 +1278,24 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve">11. Test Scenario: Handbook Usability on Different Devices
-</t>
+          <t>20. Test Scenario: System Behavior on Pressing 'Exit' in Exit Confirmation</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12. Test Scenario: Handbook Performance under High Load
-</t>
-        </is>
-      </c>
+      <c r="A111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">13. Test Scenario: Data Persistence After Logout and Login
-</t>
+          <t>Handbook.txt</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">14. Test Scenario: Accessibility Features in Handbook
+          <t xml:space="preserve">1. Test Scenario: Verify Navigation to Handbook Tab
 </t>
         </is>
       </c>
@@ -1303,24 +1303,31 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>15. Test Scenario: Error Handling for Search Functionality</t>
+          <t xml:space="preserve">2. Test Scenario: Display Learner's Vocabulary List
+</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr"/>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3. Test Scenario: Scroll Through Vocabulary List
+</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Learning days history.txt</t>
+          <t xml:space="preserve">4. Test Scenario: Search Vocabulary Functionality
+</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. Test Scenario: Verify redirection to History page from Home page.
+          <t xml:space="preserve">5. Test Scenario: Search Results for Valid Vocabulary
 </t>
         </is>
       </c>
@@ -1328,7 +1335,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">2. Test Scenario: Validate the display of "Day History" option on History page.
+          <t xml:space="preserve">6. Test Scenario: Search for Meaningless Vocabulary
 </t>
         </is>
       </c>
@@ -1336,7 +1343,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve">3. Test Scenario: Check redirection to "Day History" details page.
+          <t xml:space="preserve">7. Test Scenario: No Results Notification for Meaningless Vocabulary Search
 </t>
         </is>
       </c>
@@ -1344,7 +1351,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve">4. Test Scenario: Verify continuous learning days count functionality.
+          <t xml:space="preserve">8. Test Scenario: Uncheck Vocabulary for Daily Review Test
 </t>
         </is>
       </c>
@@ -1352,7 +1359,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve">5. Test Scenario: Validate learning days count reset functionality after a break.
+          <t xml:space="preserve">9. Test Scenario: Check Vocabulary for Daily Review Test
 </t>
         </is>
       </c>
@@ -1360,7 +1367,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve">6. Test Scenario: Check access to "Day History" without logging in.
+          <t xml:space="preserve">10. Test Scenario: Reflect Changes in Daily Review Test Based on Vocabulary Selection
 </t>
         </is>
       </c>
@@ -1368,7 +1375,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve">7. Test Scenario: Verify the display of learning days history for multiple learners.
+          <t xml:space="preserve">11. Test Scenario: Handbook Usability on Different Devices
 </t>
         </is>
       </c>
@@ -1376,7 +1383,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve">8. Test Scenario: Validate the accuracy of learning days count over a period.
+          <t xml:space="preserve">12. Test Scenario: Handbook Performance under High Load
 </t>
         </is>
       </c>
@@ -1384,7 +1391,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve">9. Test Scenario: Check system behavior when there is no learning history.
+          <t xml:space="preserve">13. Test Scenario: Data Persistence After Logout and Login
 </t>
         </is>
       </c>
@@ -1392,7 +1399,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve">10. Test Scenario: Verify the system's response to back-to-back learning day checks.
+          <t xml:space="preserve">14. Test Scenario: Accessibility Features in Handbook
 </t>
         </is>
       </c>
@@ -1400,31 +1407,24 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve">11. Test Scenario: Validate the system's performance with a high volume of learning days data.
-</t>
+          <t>15. Test Scenario: Error Handling for Search Functionality</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12. Test Scenario: Check the UI elements on the "Day History" details page for accessibility compliance.
-</t>
-        </is>
-      </c>
+      <c r="A128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve">13. Test Scenario: Verify the refresh functionality on the "Day History" details page.
-</t>
+          <t>Learning days history.txt</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">14. Test Scenario: Validate the error handling when the "Day History" data fails to load.
+          <t xml:space="preserve">1. Test Scenario: Verify redirection to History page from Home page.
 </t>
         </is>
       </c>
@@ -1432,24 +1432,31 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>15. Test Scenario: Check the system's response to simultaneous access by multiple learners.</t>
+          <t xml:space="preserve">2. Test Scenario: Validate the display of "Day History" option on History page.
+</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr"/>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3. Test Scenario: Check redirection to "Day History" details page.
+</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ListenToPronunciation.txt</t>
+          <t xml:space="preserve">4. Test Scenario: Verify continuous learning days count functionality.
+</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. TestScenario_ValidLoginAndAccessReviewTest
+          <t xml:space="preserve">5. Test Scenario: Validate learning days count reset functionality after a break.
 </t>
         </is>
       </c>
@@ -1457,7 +1464,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t xml:space="preserve">2. TestScenario_DisplaySpeakerButton
+          <t xml:space="preserve">6. Test Scenario: Check access to "Day History" without logging in.
 </t>
         </is>
       </c>
@@ -1465,7 +1472,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">3. TestScenario_CorrectAnswerSelection
+          <t xml:space="preserve">7. Test Scenario: Verify the display of learning days history for multiple learners.
 </t>
         </is>
       </c>
@@ -1473,7 +1480,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">4. TestScenario_IncorrectAnswerSelection
+          <t xml:space="preserve">8. Test Scenario: Validate the accuracy of learning days count over a period.
 </t>
         </is>
       </c>
@@ -1481,7 +1488,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t xml:space="preserve">5. TestScenario_GreenPopupOnCorrectAnswer
+          <t xml:space="preserve">9. Test Scenario: Check system behavior when there is no learning history.
 </t>
         </is>
       </c>
@@ -1489,7 +1496,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t xml:space="preserve">6. TestScenario_RedPopupOnIncorrectAnswer
+          <t xml:space="preserve">10. Test Scenario: Verify the system's response to back-to-back learning day checks.
 </t>
         </is>
       </c>
@@ -1497,7 +1504,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t xml:space="preserve">7. TestScenario_CompareVietnameseMeaningAndEnglishVocabulary
+          <t xml:space="preserve">11. Test Scenario: Validate the system's performance with a high volume of learning days data.
 </t>
         </is>
       </c>
@@ -1505,7 +1512,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t xml:space="preserve">8. TestScenario_AudioPlaybackFunctionality
+          <t xml:space="preserve">12. Test Scenario: Check the UI elements on the "Day History" details page for accessibility compliance.
 </t>
         </is>
       </c>
@@ -1513,7 +1520,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t xml:space="preserve">9. TestScenario_NavigationToNextQuestionAfterAnswer
+          <t xml:space="preserve">13. Test Scenario: Verify the refresh functionality on the "Day History" details page.
 </t>
         </is>
       </c>
@@ -1521,7 +1528,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t xml:space="preserve">10. TestScenario_ReviewTestQuestionMarkedAsStudied
+          <t xml:space="preserve">14. Test Scenario: Validate the error handling when the "Day History" data fails to load.
 </t>
         </is>
       </c>
@@ -1529,31 +1536,24 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t xml:space="preserve">11. TestScenario_LogoutAndRetainProgress
-</t>
+          <t>15. Test Scenario: Check the system's response to simultaneous access by multiple learners.</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12. TestScenario_AccessReviewTestWithoutLogin
-</t>
-        </is>
-      </c>
+      <c r="A145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t xml:space="preserve">13. TestScenario_RefreshPageDuringTest
-</t>
+          <t>ListenToPronunciation.txt</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t xml:space="preserve">14. TestScenario_MultipleAnswersSelection
+          <t xml:space="preserve">1. TestScenario_ValidLoginAndAccessReviewTest
 </t>
         </is>
       </c>
@@ -1561,7 +1561,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t xml:space="preserve">15. TestScenario_NoAnswerSelection
+          <t xml:space="preserve">2. TestScenario_DisplaySpeakerButton
 </t>
         </is>
       </c>
@@ -1569,7 +1569,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve">16. TestScenario_TimeoutForAnswerSelection
+          <t xml:space="preserve">3. TestScenario_CorrectAnswerSelection
 </t>
         </is>
       </c>
@@ -1577,7 +1577,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t xml:space="preserve">17. TestScenario_VolumeAdjustmentFunctionality
+          <t xml:space="preserve">4. TestScenario_IncorrectAnswerSelection
 </t>
         </is>
       </c>
@@ -1585,7 +1585,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t xml:space="preserve">18. TestScenario_AccessibilityFeaturesForHearingImpaired
+          <t xml:space="preserve">5. TestScenario_GreenPopupOnCorrectAnswer
 </t>
         </is>
       </c>
@@ -1593,7 +1593,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t xml:space="preserve">19. TestScenario_InternetConnectivityIssuesDuringTest
+          <t xml:space="preserve">6. TestScenario_RedPopupOnIncorrectAnswer
 </t>
         </is>
       </c>
@@ -1601,24 +1601,31 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20. TestScenario_BrowserCompatibilityCheck</t>
+          <t xml:space="preserve">7. TestScenario_CompareVietnameseMeaningAndEnglishVocabulary
+</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr"/>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8. TestScenario_AudioPlaybackFunctionality
+</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Login.txt</t>
+          <t xml:space="preserve">9. TestScenario_NavigationToNextQuestionAfterAnswer
+</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. Valid Login With Username
+          <t xml:space="preserve">10. TestScenario_ReviewTestQuestionMarkedAsStudied
 </t>
         </is>
       </c>
@@ -1626,7 +1633,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t xml:space="preserve">2. Valid Login With Email
+          <t xml:space="preserve">11. TestScenario_LogoutAndRetainProgress
 </t>
         </is>
       </c>
@@ -1634,7 +1641,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t xml:space="preserve">3. Invalid Login With Wrong Password
+          <t xml:space="preserve">12. TestScenario_AccessReviewTestWithoutLogin
 </t>
         </is>
       </c>
@@ -1642,7 +1649,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t xml:space="preserve">4. Invalid Login With Unregistered Username
+          <t xml:space="preserve">13. TestScenario_RefreshPageDuringTest
 </t>
         </is>
       </c>
@@ -1650,7 +1657,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t xml:space="preserve">5. Invalid Login With Blank Username Field
+          <t xml:space="preserve">14. TestScenario_MultipleAnswersSelection
 </t>
         </is>
       </c>
@@ -1658,7 +1665,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t xml:space="preserve">6. Invalid Login With Blank Password Field
+          <t xml:space="preserve">15. TestScenario_NoAnswerSelection
 </t>
         </is>
       </c>
@@ -1666,7 +1673,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve">7. Login Button Functionality
+          <t xml:space="preserve">16. TestScenario_TimeoutForAnswerSelection
 </t>
         </is>
       </c>
@@ -1674,7 +1681,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t xml:space="preserve">8. Redirect To Home Page After Successful Login
+          <t xml:space="preserve">17. TestScenario_VolumeAdjustmentFunctionality
 </t>
         </is>
       </c>
@@ -1682,7 +1689,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t xml:space="preserve">9. Error Notification For Wrong Password
+          <t xml:space="preserve">18. TestScenario_AccessibilityFeaturesForHearingImpaired
 </t>
         </is>
       </c>
@@ -1690,7 +1697,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t xml:space="preserve">10. Error Notification For Unregistered Username
+          <t xml:space="preserve">19. TestScenario_InternetConnectivityIssuesDuringTest
 </t>
         </is>
       </c>
@@ -1698,31 +1705,24 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve">11. Error Notification For Blank Username Field
-</t>
+          <t>20. TestScenario_BrowserCompatibilityCheck</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12. Error Notification For Blank Password Field
-</t>
-        </is>
-      </c>
+      <c r="A167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t xml:space="preserve">13. Login With Special Characters In Username
-</t>
+          <t>Login.txt</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t xml:space="preserve">14. Login With Special Characters In Password
+          <t xml:space="preserve">1. Valid Login With Username
 </t>
         </is>
       </c>
@@ -1730,7 +1730,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t xml:space="preserve">15. Case Sensitivity Check In Username Field
+          <t xml:space="preserve">2. Valid Login With Email
 </t>
         </is>
       </c>
@@ -1738,7 +1738,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t xml:space="preserve">16. Case Sensitivity Check In Password Field
+          <t xml:space="preserve">3. Invalid Login With Wrong Password
 </t>
         </is>
       </c>
@@ -1746,7 +1746,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t xml:space="preserve">17. Login With Long Username
+          <t xml:space="preserve">4. Invalid Login With Unregistered Username
 </t>
         </is>
       </c>
@@ -1754,7 +1754,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t xml:space="preserve">18. Login With Long Password
+          <t xml:space="preserve">5. Invalid Login With Blank Username Field
 </t>
         </is>
       </c>
@@ -1762,7 +1762,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t xml:space="preserve">19. Login With Short Username
+          <t xml:space="preserve">6. Invalid Login With Blank Password Field
 </t>
         </is>
       </c>
@@ -1770,24 +1770,31 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20. Login With Short Password</t>
+          <t xml:space="preserve">7. Login Button Functionality
+</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr"/>
+      <c r="A176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8. Redirect To Home Page After Successful Login
+</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Registry.txt</t>
+          <t xml:space="preserve">9. Error Notification For Wrong Password
+</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. ValidUsernameAndPasswordRegistration
+          <t xml:space="preserve">10. Error Notification For Unregistered Username
 </t>
         </is>
       </c>
@@ -1795,7 +1802,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t xml:space="preserve">2. UsernameBelowMinimumLength
+          <t xml:space="preserve">11. Error Notification For Blank Username Field
 </t>
         </is>
       </c>
@@ -1803,7 +1810,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t xml:space="preserve">3. UsernameAboveMaximumLength
+          <t xml:space="preserve">12. Error Notification For Blank Password Field
 </t>
         </is>
       </c>
@@ -1811,7 +1818,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t xml:space="preserve">4. PasswordBelowMinimumLength
+          <t xml:space="preserve">13. Login With Special Characters In Username
 </t>
         </is>
       </c>
@@ -1819,7 +1826,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t xml:space="preserve">5. PasswordAboveMaximumLength
+          <t xml:space="preserve">14. Login With Special Characters In Password
 </t>
         </is>
       </c>
@@ -1827,7 +1834,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t xml:space="preserve">6. PasswordWithoutNormalCharacter
+          <t xml:space="preserve">15. Case Sensitivity Check In Username Field
 </t>
         </is>
       </c>
@@ -1835,7 +1842,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t xml:space="preserve">7. PasswordWithoutCapitalizedCharacter
+          <t xml:space="preserve">16. Case Sensitivity Check In Password Field
 </t>
         </is>
       </c>
@@ -1843,7 +1850,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t xml:space="preserve">8. PasswordWithoutNumber
+          <t xml:space="preserve">17. Login With Long Username
 </t>
         </is>
       </c>
@@ -1851,7 +1858,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t xml:space="preserve">9. PasswordWithoutSpecialCharacter
+          <t xml:space="preserve">18. Login With Long Password
 </t>
         </is>
       </c>
@@ -1859,7 +1866,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t xml:space="preserve">10. PasswordSameAsUsername
+          <t xml:space="preserve">19. Login With Short Username
 </t>
         </is>
       </c>
@@ -1867,31 +1874,24 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t xml:space="preserve">11. SuccessfulRedirectToHomePage
-</t>
+          <t>20. Login With Short Password</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12. RegisterByEmailValidEmail
-</t>
-        </is>
-      </c>
+      <c r="A189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t xml:space="preserve">13. RegisterByEmailInvalidEmailFormat
-</t>
+          <t>Registry.txt</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t xml:space="preserve">14. RegisterByEmailInexistentEmail
+          <t xml:space="preserve">1. ValidUsernameAndPasswordRegistration
 </t>
         </is>
       </c>
@@ -1899,7 +1899,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t xml:space="preserve">15. InvalidUsernameNotification
+          <t xml:space="preserve">2. UsernameBelowMinimumLength
 </t>
         </is>
       </c>
@@ -1907,7 +1907,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t xml:space="preserve">16. InvalidPasswordNotification
+          <t xml:space="preserve">3. UsernameAboveMaximumLength
 </t>
         </is>
       </c>
@@ -1915,7 +1915,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t xml:space="preserve">17. ExistedUsernameNotification
+          <t xml:space="preserve">4. PasswordBelowMinimumLength
 </t>
         </is>
       </c>
@@ -1923,7 +1923,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t xml:space="preserve">18. InvalidEmailNotification
+          <t xml:space="preserve">5. PasswordAboveMaximumLength
 </t>
         </is>
       </c>
@@ -1931,7 +1931,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t xml:space="preserve">19. UsernameWithSpecialCharacters
+          <t xml:space="preserve">6. PasswordWithoutNormalCharacter
 </t>
         </is>
       </c>
@@ -1939,7 +1939,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t xml:space="preserve">20. UsernameWithSpaces
+          <t xml:space="preserve">7. PasswordWithoutCapitalizedCharacter
 </t>
         </is>
       </c>
@@ -1947,7 +1947,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t xml:space="preserve">21. EmailWithSpecialCharacters
+          <t xml:space="preserve">8. PasswordWithoutNumber
 </t>
         </is>
       </c>
@@ -1955,7 +1955,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t xml:space="preserve">22. EmailWithoutAtSymbol
+          <t xml:space="preserve">9. PasswordWithoutSpecialCharacter
 </t>
         </is>
       </c>
@@ -1963,7 +1963,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t xml:space="preserve">23. EmailWithoutDomain
+          <t xml:space="preserve">10. PasswordSameAsUsername
 </t>
         </is>
       </c>
@@ -1971,7 +1971,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t xml:space="preserve">24. PasswordWithSpacesOnly
+          <t xml:space="preserve">11. SuccessfulRedirectToHomePage
 </t>
         </is>
       </c>
@@ -1979,24 +1979,31 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>25. PasswordAllSpecialCharacters</t>
+          <t xml:space="preserve">12. RegisterByEmailValidEmail
+</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr"/>
+      <c r="A203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13. RegisterByEmailInvalidEmailFormat
+</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Review test.txt</t>
+          <t xml:space="preserve">14. RegisterByEmailInexistentEmail
+</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. ReviewButtonNavigationTest
+          <t xml:space="preserve">15. InvalidUsernameNotification
 </t>
         </is>
       </c>
@@ -2004,7 +2011,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t xml:space="preserve">2. ReviewScreenRedirectionTest
+          <t xml:space="preserve">16. InvalidPasswordNotification
 </t>
         </is>
       </c>
@@ -2012,7 +2019,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t xml:space="preserve">3. RandomMethodSelectionTest
+          <t xml:space="preserve">17. ExistedUsernameNotification
 </t>
         </is>
       </c>
@@ -2020,7 +2027,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t xml:space="preserve">4. AnswerSelectionTest
+          <t xml:space="preserve">18. InvalidEmailNotification
 </t>
         </is>
       </c>
@@ -2028,7 +2035,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t xml:space="preserve">5. CorrectAnswerFeedbackTest
+          <t xml:space="preserve">19. UsernameWithSpecialCharacters
 </t>
         </is>
       </c>
@@ -2036,7 +2043,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t xml:space="preserve">6. IncorrectAnswerFeedbackTest
+          <t xml:space="preserve">20. UsernameWithSpaces
 </t>
         </is>
       </c>
@@ -2044,7 +2051,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t xml:space="preserve">7. MemoryLevelIncreaseTest
+          <t xml:space="preserve">21. EmailWithSpecialCharacters
 </t>
         </is>
       </c>
@@ -2052,7 +2059,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t xml:space="preserve">8. MemoryLevelDecreaseTest
+          <t xml:space="preserve">22. EmailWithoutAtSymbol
 </t>
         </is>
       </c>
@@ -2060,7 +2067,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t xml:space="preserve">9. ContinueButtonFunctionalityTest
+          <t xml:space="preserve">23. EmailWithoutDomain
 </t>
         </is>
       </c>
@@ -2068,7 +2075,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t xml:space="preserve">10. LastWordReviewFlowTest
+          <t xml:space="preserve">24. PasswordWithSpacesOnly
 </t>
         </is>
       </c>
@@ -2076,31 +2083,24 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t xml:space="preserve">11. ReviewSaveFunctionalityTest
-</t>
+          <t>25. PasswordAllSpecialCharacters</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12. ExitButtonPopupDisplayTest
-</t>
-        </is>
-      </c>
+      <c r="A216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t xml:space="preserve">13. StayOptionFunctionalityTest
-</t>
+          <t>Review test.txt</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t xml:space="preserve">14. ConfirmExitFunctionalityTest
+          <t xml:space="preserve">1. ReviewButtonNavigationTest
 </t>
         </is>
       </c>
@@ -2108,7 +2108,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t xml:space="preserve">15. ReviewNotSavedOnExitTest
+          <t xml:space="preserve">2. ReviewScreenRedirectionTest
 </t>
         </is>
       </c>
@@ -2116,7 +2116,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t xml:space="preserve">16. ReviewScreenLoadWithDailyWordsTest
+          <t xml:space="preserve">3. RandomMethodSelectionTest
 </t>
         </is>
       </c>
@@ -2124,7 +2124,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t xml:space="preserve">17. ReviewCompletionStatusUpdateTest
+          <t xml:space="preserve">4. AnswerSelectionTest
 </t>
         </is>
       </c>
@@ -2132,7 +2132,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t xml:space="preserve">18. HomeScreenRedirectionAfterReviewTest
+          <t xml:space="preserve">5. CorrectAnswerFeedbackTest
 </t>
         </is>
       </c>
@@ -2140,7 +2140,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t xml:space="preserve">19. ReviewMethodQuestionsTest
+          <t xml:space="preserve">6. IncorrectAnswerFeedbackTest
 </t>
         </is>
       </c>
@@ -2148,7 +2148,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t xml:space="preserve">20. ReviewMethodSoundTest
+          <t xml:space="preserve">7. MemoryLevelIncreaseTest
 </t>
         </is>
       </c>
@@ -2156,7 +2156,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t xml:space="preserve">21. ReviewMethodImageTest
+          <t xml:space="preserve">8. MemoryLevelDecreaseTest
 </t>
         </is>
       </c>
@@ -2164,7 +2164,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t xml:space="preserve">22. ReviewMethodMeaningsTest
+          <t xml:space="preserve">9. ContinueButtonFunctionalityTest
 </t>
         </is>
       </c>
@@ -2172,7 +2172,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t xml:space="preserve">23. UserLoginPreconditionTest
+          <t xml:space="preserve">10. LastWordReviewFlowTest
 </t>
         </is>
       </c>
@@ -2180,7 +2180,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t xml:space="preserve">24. ReviewWordsListAvailabilityTest
+          <t xml:space="preserve">11. ReviewSaveFunctionalityTest
 </t>
         </is>
       </c>
@@ -2188,24 +2188,31 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>25. VocabularyStatusUpdatePostConditionTest</t>
+          <t xml:space="preserve">12. ExitButtonPopupDisplayTest
+</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr"/>
+      <c r="A230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13. StayOptionFunctionalityTest
+</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>WordSortingTest.txt</t>
+          <t xml:space="preserve">14. ConfirmExitFunctionalityTest
+</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. Test Scenario: Verify successful login before starting the test.
+          <t xml:space="preserve">15. ReviewNotSavedOnExitTest
 </t>
         </is>
       </c>
@@ -2213,7 +2220,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t xml:space="preserve">2. Test Scenario: Validate display of vocabulary question with jumbled letters.
+          <t xml:space="preserve">16. ReviewScreenLoadWithDailyWordsTest
 </t>
         </is>
       </c>
@@ -2221,7 +2228,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t xml:space="preserve">3. Test Scenario: Check functionality of letter buttons for arranging words.
+          <t xml:space="preserve">17. ReviewCompletionStatusUpdateTest
 </t>
         </is>
       </c>
@@ -2229,7 +2236,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t xml:space="preserve">4. Test Scenario: Assess the correctness of the answer submission process.
+          <t xml:space="preserve">18. HomeScreenRedirectionAfterReviewTest
 </t>
         </is>
       </c>
@@ -2237,7 +2244,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t xml:space="preserve">5. Test Scenario: Confirm the appearance of a green pop-up screen for correct answers.
+          <t xml:space="preserve">19. ReviewMethodQuestionsTest
 </t>
         </is>
       </c>
@@ -2245,7 +2252,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t xml:space="preserve">6. Test Scenario: Ensure a red pop-up screen is displayed for incorrect answers.
+          <t xml:space="preserve">20. ReviewMethodSoundTest
 </t>
         </is>
       </c>
@@ -2253,7 +2260,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t xml:space="preserve">7. Test Scenario: Evaluate the system's ability to compare user answers with correct vocabulary.
+          <t xml:space="preserve">21. ReviewMethodImageTest
 </t>
         </is>
       </c>
@@ -2261,7 +2268,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t xml:space="preserve">8. Test Scenario: Verify vocabulary words are marked as studied after completion.
+          <t xml:space="preserve">22. ReviewMethodMeaningsTest
 </t>
         </is>
       </c>
@@ -2269,7 +2276,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t xml:space="preserve">9. Test Scenario: Check the system's response to an empty answer submission.
+          <t xml:space="preserve">23. UserLoginPreconditionTest
 </t>
         </is>
       </c>
@@ -2277,7 +2284,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t xml:space="preserve">10. Test Scenario: Validate the system's behavior when the learner tries to proceed without arranging letters.
+          <t xml:space="preserve">24. ReviewWordsListAvailabilityTest
 </t>
         </is>
       </c>
@@ -2285,31 +2292,24 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t xml:space="preserve">11. Test Scenario: Test the functionality of the enter button in submitting answers.
-</t>
+          <t>25. VocabularyStatusUpdatePostConditionTest</t>
         </is>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12. Test Scenario: Assess the application's performance under high server load.
-</t>
-        </is>
-      </c>
+      <c r="A243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t xml:space="preserve">13. Test Scenario: Verify that learners can only access the test when logged in.
-</t>
+          <t>WordSortingTest.txt</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t xml:space="preserve">14. Test Scenario: Check for the correct marking of studied vocabulary in the learner's progress.
+          <t xml:space="preserve">1. Test Scenario: Verify successful login before starting the test.
 </t>
         </is>
       </c>
@@ -2317,7 +2317,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t xml:space="preserve">15. Test Scenario: Validate the system's handling of special characters in answers.
+          <t xml:space="preserve">2. Test Scenario: Validate display of vocabulary question with jumbled letters.
 </t>
         </is>
       </c>
@@ -2325,7 +2325,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t xml:space="preserve">16. Test Scenario: Ensure the test can handle multiple correct answers (if applicable).
+          <t xml:space="preserve">3. Test Scenario: Check functionality of letter buttons for arranging words.
 </t>
         </is>
       </c>
@@ -2333,7 +2333,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t xml:space="preserve">17. Test Scenario: Test the application's response to rapid consecutive submissions.
+          <t xml:space="preserve">4. Test Scenario: Assess the correctness of the answer submission process.
 </t>
         </is>
       </c>
@@ -2341,7 +2341,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t xml:space="preserve">18. Test Scenario: Verify the system's ability to save and resume progress.
+          <t xml:space="preserve">5. Test Scenario: Confirm the appearance of a green pop-up screen for correct answers.
 </t>
         </is>
       </c>
@@ -2349,7 +2349,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t xml:space="preserve">19. Test Scenario: Check the user interface for accessibility compliance.
+          <t xml:space="preserve">6. Test Scenario: Ensure a red pop-up screen is displayed for incorrect answers.
 </t>
         </is>
       </c>
@@ -2357,12 +2357,116 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
+          <t xml:space="preserve">7. Test Scenario: Evaluate the system's ability to compare user answers with correct vocabulary.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8. Test Scenario: Verify vocabulary words are marked as studied after completion.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9. Test Scenario: Check the system's response to an empty answer submission.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10. Test Scenario: Validate the system's behavior when the learner tries to proceed without arranging letters.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11. Test Scenario: Test the functionality of the enter button in submitting answers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12. Test Scenario: Assess the application's performance under high server load.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13. Test Scenario: Verify that learners can only access the test when logged in.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14. Test Scenario: Check for the correct marking of studied vocabulary in the learner's progress.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15. Test Scenario: Validate the system's handling of special characters in answers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16. Test Scenario: Ensure the test can handle multiple correct answers (if applicable).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17. Test Scenario: Test the application's response to rapid consecutive submissions.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18. Test Scenario: Verify the system's ability to save and resume progress.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19. Test Scenario: Check the user interface for accessibility compliance.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
           <t>20. Test Scenario: Validate the timeout functionality for inactivity during the test.</t>
         </is>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" t="inlineStr"/>
+    <row r="265">
+      <c r="A265" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
